--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_16_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_16_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2238489.078202606</v>
+        <v>-2239315.371037098</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3232064.881861079</v>
+        <v>3232064.881861077</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.0292736556</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>287.8716252173193</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>275.882942175001</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>288.6063837894345</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>307.7781998774117</v>
       </c>
       <c r="G11" t="n">
-        <v>51.30245188027485</v>
+        <v>194.0257378596708</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>47.5777283153152</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.54719260666903</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>117.4676296620864</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>231.3780024574984</v>
       </c>
       <c r="W11" t="n">
         <v>256.6781019354553</v>
@@ -1449,7 +1449,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>57.85515712593516</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
@@ -1461,13 +1461,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>24.91440613843617</v>
+        <v>24.91440613843619</v>
       </c>
       <c r="H12" t="n">
-        <v>5.336743779589536</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>57.53030467618052</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>43.55438923720612</v>
+        <v>145.7858681427258</v>
       </c>
       <c r="T12" t="n">
-        <v>83.37638701111983</v>
+        <v>185.6078659166395</v>
       </c>
       <c r="U12" t="n">
-        <v>216.2904148768182</v>
+        <v>164.0968539802292</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
@@ -1515,7 +1515,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.5961130869169</v>
+        <v>88.36463418139726</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.48833609201633</v>
+        <v>79.48833609201634</v>
       </c>
       <c r="C13" t="n">
-        <v>65.68833093741681</v>
+        <v>65.68833093741682</v>
       </c>
       <c r="D13" t="n">
-        <v>49.3096953349952</v>
+        <v>49.30969533499521</v>
       </c>
       <c r="E13" t="n">
-        <v>48.25744519077465</v>
+        <v>48.25744519077466</v>
       </c>
       <c r="F13" t="n">
-        <v>48.72436951896096</v>
+        <v>48.72436951896097</v>
       </c>
       <c r="G13" t="n">
-        <v>64.7514775452634</v>
+        <v>64.75147754526341</v>
       </c>
       <c r="H13" t="n">
-        <v>53.34609793795929</v>
+        <v>53.34609793795931</v>
       </c>
       <c r="I13" t="n">
-        <v>33.08368730955447</v>
+        <v>33.08368730955448</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.66232683265953</v>
+        <v>34.66232683265955</v>
       </c>
       <c r="S13" t="n">
         <v>105.0262857884477</v>
       </c>
       <c r="T13" t="n">
-        <v>127.5577801408563</v>
+        <v>127.5577801408564</v>
       </c>
       <c r="U13" t="n">
         <v>182.0733530450871</v>
@@ -1607,16 +1607,16 @@
         <v>287.8716252173193</v>
       </c>
       <c r="C14" t="n">
-        <v>72.75773741164343</v>
+        <v>275.882942175001</v>
       </c>
       <c r="D14" t="n">
-        <v>266.864246219529</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>288.6063837894345</v>
       </c>
       <c r="F14" t="n">
-        <v>307.7781998774117</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>309.1594978745046</v>
@@ -1625,7 +1625,7 @@
         <v>221.6087210113936</v>
       </c>
       <c r="I14" t="n">
-        <v>47.5777283153152</v>
+        <v>47.57772831531519</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.54719260666903</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>117.4676296620864</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>150.0608464255998</v>
       </c>
       <c r="V14" t="n">
         <v>231.3780024574984</v>
       </c>
       <c r="W14" t="n">
-        <v>256.6781019354553</v>
+        <v>154.0042737947832</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>275.9783601682019</v>
       </c>
       <c r="Y14" t="n">
-        <v>287.3749579644007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1695,16 +1695,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>37.83122192416247</v>
       </c>
       <c r="G15" t="n">
         <v>127.1458850439559</v>
       </c>
       <c r="H15" t="n">
-        <v>0.570575327829634</v>
+        <v>96.08621347328979</v>
       </c>
       <c r="I15" t="n">
-        <v>57.53030467618052</v>
+        <v>57.53030467618051</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>40.85006423600239</v>
+        <v>40.85006423600237</v>
       </c>
       <c r="S15" t="n">
         <v>145.7858681427258</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.48833609201633</v>
+        <v>79.48833609201634</v>
       </c>
       <c r="C16" t="n">
-        <v>65.68833093741681</v>
+        <v>65.68833093741682</v>
       </c>
       <c r="D16" t="n">
-        <v>49.3096953349952</v>
+        <v>49.30969533499521</v>
       </c>
       <c r="E16" t="n">
-        <v>48.25744519077465</v>
+        <v>48.25744519077466</v>
       </c>
       <c r="F16" t="n">
-        <v>48.72436951896096</v>
+        <v>48.72436951896097</v>
       </c>
       <c r="G16" t="n">
-        <v>64.7514775452634</v>
+        <v>64.75147754526341</v>
       </c>
       <c r="H16" t="n">
-        <v>53.34609793795929</v>
+        <v>53.3460979379593</v>
       </c>
       <c r="I16" t="n">
-        <v>33.08368730955447</v>
+        <v>33.08368730955448</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1844,22 +1844,22 @@
         <v>217.3244326106502</v>
       </c>
       <c r="C17" t="n">
-        <v>205.3357495683319</v>
+        <v>205.335749568332</v>
       </c>
       <c r="D17" t="n">
-        <v>196.3170536128599</v>
+        <v>196.31705361286</v>
       </c>
       <c r="E17" t="n">
         <v>218.0591911827655</v>
       </c>
       <c r="F17" t="n">
-        <v>237.2310072707426</v>
+        <v>237.2310072707427</v>
       </c>
       <c r="G17" t="n">
         <v>238.6123052678356</v>
       </c>
       <c r="H17" t="n">
-        <v>151.0615284047245</v>
+        <v>151.0615284047246</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,19 +1895,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>46.92043705541735</v>
+        <v>46.92043705541739</v>
       </c>
       <c r="U17" t="n">
-        <v>79.51365381893078</v>
+        <v>79.51365381893082</v>
       </c>
       <c r="V17" t="n">
-        <v>160.8308098508293</v>
+        <v>160.8308098508294</v>
       </c>
       <c r="W17" t="n">
-        <v>186.1309093287862</v>
+        <v>186.1309093287863</v>
       </c>
       <c r="X17" t="n">
-        <v>205.4311675615328</v>
+        <v>205.4311675615329</v>
       </c>
       <c r="Y17" t="n">
         <v>216.8277653577316</v>
@@ -1923,7 +1923,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>64.57099788599281</v>
       </c>
       <c r="D18" t="n">
         <v>137.45025063969</v>
@@ -1938,10 +1938,10 @@
         <v>127.1458850439559</v>
       </c>
       <c r="H18" t="n">
-        <v>58.10088000401016</v>
+        <v>96.08621347328979</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>57.53030467618052</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>40.85006423600239</v>
+        <v>40.8500642360024</v>
       </c>
       <c r="S18" t="n">
         <v>145.7858681427258</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.941143485347283</v>
+        <v>8.941143485347311</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>67.85806991390095</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>17.41928851409254</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.47909318177864</v>
+        <v>34.47909318177867</v>
       </c>
       <c r="T19" t="n">
-        <v>57.01058753418618</v>
+        <v>57.01058753418621</v>
       </c>
       <c r="U19" t="n">
         <v>111.5261604384181</v>
       </c>
       <c r="V19" t="n">
-        <v>85.34927988497287</v>
+        <v>85.3492798849729</v>
       </c>
       <c r="W19" t="n">
-        <v>110.5161659555861</v>
+        <v>139.1321242676864</v>
       </c>
       <c r="X19" t="n">
-        <v>56.16126795138925</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.03613570745694</v>
+        <v>47.03613570745696</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>217.3244326106503</v>
+        <v>217.3244326106502</v>
       </c>
       <c r="C20" t="n">
-        <v>205.3357495683321</v>
+        <v>205.335749568332</v>
       </c>
       <c r="D20" t="n">
-        <v>196.3170536128601</v>
+        <v>196.31705361286</v>
       </c>
       <c r="E20" t="n">
-        <v>218.0591911827656</v>
+        <v>218.0591911827655</v>
       </c>
       <c r="F20" t="n">
-        <v>237.2310072707428</v>
+        <v>237.2310072707427</v>
       </c>
       <c r="G20" t="n">
-        <v>238.6123052678357</v>
+        <v>238.6123052678356</v>
       </c>
       <c r="H20" t="n">
-        <v>151.0615284047245</v>
+        <v>151.0615284047246</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>46.92043705541749</v>
+        <v>46.92043705541739</v>
       </c>
       <c r="U20" t="n">
-        <v>79.51365381893092</v>
+        <v>79.51365381893082</v>
       </c>
       <c r="V20" t="n">
-        <v>160.8308098508295</v>
+        <v>160.8308098508294</v>
       </c>
       <c r="W20" t="n">
-        <v>186.1309093287864</v>
+        <v>186.1309093287863</v>
       </c>
       <c r="X20" t="n">
-        <v>205.431167561533</v>
+        <v>205.4311675615329</v>
       </c>
       <c r="Y20" t="n">
-        <v>216.8277653577317</v>
+        <v>216.8277653577316</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2175,7 @@
         <v>127.1458850439559</v>
       </c>
       <c r="H21" t="n">
-        <v>0.570575327829634</v>
+        <v>96.08621347328979</v>
       </c>
       <c r="I21" t="n">
         <v>57.53030467618052</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>40.85006423600239</v>
+        <v>40.8500642360024</v>
       </c>
       <c r="S21" t="n">
         <v>145.7858681427258</v>
@@ -2214,7 +2214,7 @@
         <v>185.6078659166395</v>
       </c>
       <c r="U21" t="n">
-        <v>216.2904148768182</v>
+        <v>120.7747767313564</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.941143485347425</v>
+        <v>8.941143485347311</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9829564507831</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.41928851409253</v>
+        <v>17.41928851409254</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>63.09505149387827</v>
+        <v>34.47909318177867</v>
       </c>
       <c r="T22" t="n">
-        <v>57.01058753418632</v>
+        <v>57.01058753418621</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3048319506068</v>
+        <v>111.5261604384181</v>
       </c>
       <c r="V22" t="n">
-        <v>85.34927988497301</v>
+        <v>85.3492798849729</v>
       </c>
       <c r="W22" t="n">
-        <v>110.5161659555863</v>
+        <v>110.5161659555862</v>
       </c>
       <c r="X22" t="n">
-        <v>56.16126795138939</v>
+        <v>90.57294132489517</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.03613570745708</v>
+        <v>47.03613570745696</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>217.3244326106503</v>
+        <v>217.3244326106502</v>
       </c>
       <c r="C23" t="n">
-        <v>205.3357495683321</v>
+        <v>205.335749568332</v>
       </c>
       <c r="D23" t="n">
-        <v>196.3170536128601</v>
+        <v>196.31705361286</v>
       </c>
       <c r="E23" t="n">
-        <v>218.0591911827656</v>
+        <v>218.0591911827655</v>
       </c>
       <c r="F23" t="n">
-        <v>237.2310072707428</v>
+        <v>237.2310072707427</v>
       </c>
       <c r="G23" t="n">
-        <v>238.6123052678357</v>
+        <v>238.6123052678356</v>
       </c>
       <c r="H23" t="n">
-        <v>151.0615284047247</v>
+        <v>151.0615284047246</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>46.9204370554175</v>
+        <v>46.92043705541738</v>
       </c>
       <c r="U23" t="n">
-        <v>79.51365381893093</v>
+        <v>79.51365381893081</v>
       </c>
       <c r="V23" t="n">
-        <v>160.8308098508295</v>
+        <v>160.8308098508294</v>
       </c>
       <c r="W23" t="n">
-        <v>186.1309093287864</v>
+        <v>186.1309093287863</v>
       </c>
       <c r="X23" t="n">
-        <v>205.431167561533</v>
+        <v>205.4311675615329</v>
       </c>
       <c r="Y23" t="n">
-        <v>216.8277653577317</v>
+        <v>216.8277653577316</v>
       </c>
     </row>
     <row r="24">
@@ -2409,10 +2409,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>31.6302468984957</v>
+        <v>127.1458850439559</v>
       </c>
       <c r="H24" t="n">
-        <v>96.08621347328979</v>
+        <v>41.4206395638312</v>
       </c>
       <c r="I24" t="n">
         <v>57.53030467618052</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>40.85006423600239</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>145.7858681427258</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.941143485347425</v>
+        <v>8.941143485347311</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>28.6159583121001</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>41.95172126025994</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.41928851409253</v>
+        <v>17.41928851409254</v>
       </c>
       <c r="R25" t="n">
-        <v>136.8938057381792</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.02819600762761</v>
+        <v>207.2577646939674</v>
       </c>
       <c r="T25" t="n">
-        <v>57.01058753418632</v>
+        <v>57.01058753418621</v>
       </c>
       <c r="U25" t="n">
-        <v>111.5261604384182</v>
+        <v>111.5261604384181</v>
       </c>
       <c r="V25" t="n">
-        <v>85.34927988497301</v>
+        <v>85.3492798849729</v>
       </c>
       <c r="W25" t="n">
-        <v>110.5161659555863</v>
+        <v>110.5161659555862</v>
       </c>
       <c r="X25" t="n">
-        <v>56.16126795138939</v>
+        <v>56.16126795138928</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.03613570745708</v>
+        <v>47.03613570745696</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>221.6087210113936</v>
       </c>
       <c r="I26" t="n">
-        <v>47.57772831531523</v>
+        <v>47.57772831531521</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.54719260666904</v>
+        <v>70.54719260666903</v>
       </c>
       <c r="T26" t="n">
         <v>117.4676296620864</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>40.85006423600239</v>
+        <v>40.8500642360024</v>
       </c>
       <c r="S27" t="n">
         <v>145.7858681427258</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.48833609201634</v>
+        <v>79.48833609201633</v>
       </c>
       <c r="C28" t="n">
-        <v>65.68833093741682</v>
+        <v>65.68833093741681</v>
       </c>
       <c r="D28" t="n">
-        <v>49.30969533499521</v>
+        <v>49.3096953349952</v>
       </c>
       <c r="E28" t="n">
-        <v>48.25744519077466</v>
+        <v>48.25744519077465</v>
       </c>
       <c r="F28" t="n">
-        <v>48.72436951896097</v>
+        <v>48.72436951896096</v>
       </c>
       <c r="G28" t="n">
-        <v>64.75147754526341</v>
+        <v>64.7514775452634</v>
       </c>
       <c r="H28" t="n">
-        <v>53.34609793795931</v>
+        <v>53.34609793795929</v>
       </c>
       <c r="I28" t="n">
         <v>33.08368730955448</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66232683265955</v>
+        <v>34.66232683265953</v>
       </c>
       <c r="S28" t="n">
         <v>105.0262857884477</v>
@@ -2810,7 +2810,7 @@
         <v>221.6087210113936</v>
       </c>
       <c r="I29" t="n">
-        <v>47.57772831531524</v>
+        <v>47.57772831531523</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.54719260666907</v>
+        <v>70.54719260666906</v>
       </c>
       <c r="T29" t="n">
         <v>117.4676296620864</v>
@@ -2889,7 +2889,7 @@
         <v>96.08621347328979</v>
       </c>
       <c r="I30" t="n">
-        <v>57.53030467618053</v>
+        <v>57.53030467618052</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.48833609201635</v>
+        <v>79.48833609201634</v>
       </c>
       <c r="C31" t="n">
-        <v>65.68833093741684</v>
+        <v>65.68833093741682</v>
       </c>
       <c r="D31" t="n">
-        <v>49.30969533499523</v>
+        <v>49.30969533499521</v>
       </c>
       <c r="E31" t="n">
-        <v>48.25744519077467</v>
+        <v>48.25744519077466</v>
       </c>
       <c r="F31" t="n">
-        <v>48.72436951896098</v>
+        <v>48.72436951896097</v>
       </c>
       <c r="G31" t="n">
-        <v>64.75147754526343</v>
+        <v>64.75147754526341</v>
       </c>
       <c r="H31" t="n">
-        <v>53.34609793795932</v>
+        <v>53.34609793795931</v>
       </c>
       <c r="I31" t="n">
-        <v>33.08368730955451</v>
+        <v>33.08368730955449</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66232683265956</v>
+        <v>34.66232683265955</v>
       </c>
       <c r="S31" t="n">
         <v>105.0262857884477</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>287.8716252173192</v>
+        <v>287.8716252173193</v>
       </c>
       <c r="C32" t="n">
-        <v>275.8829421750009</v>
+        <v>275.8829421750011</v>
       </c>
       <c r="D32" t="n">
-        <v>266.8642462195289</v>
+        <v>266.864246219529</v>
       </c>
       <c r="E32" t="n">
         <v>288.6063837894345</v>
       </c>
       <c r="F32" t="n">
-        <v>307.7781998774116</v>
+        <v>307.7781998774117</v>
       </c>
       <c r="G32" t="n">
         <v>309.1594978745046</v>
       </c>
       <c r="H32" t="n">
-        <v>221.6087210113935</v>
+        <v>221.6087210113936</v>
       </c>
       <c r="I32" t="n">
-        <v>47.57772831531517</v>
+        <v>47.57772831531526</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.547192606669</v>
+        <v>70.54719260666909</v>
       </c>
       <c r="T32" t="n">
         <v>117.4676296620864</v>
       </c>
       <c r="U32" t="n">
-        <v>150.0608464255998</v>
+        <v>150.0608464255999</v>
       </c>
       <c r="V32" t="n">
-        <v>231.3780024574983</v>
+        <v>231.3780024574984</v>
       </c>
       <c r="W32" t="n">
-        <v>256.6781019354552</v>
+        <v>256.6781019354553</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9783601682018</v>
+        <v>275.9783601682019</v>
       </c>
       <c r="Y32" t="n">
-        <v>287.3749579644006</v>
+        <v>287.3749579644007</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>96.08621347328979</v>
       </c>
       <c r="I33" t="n">
-        <v>57.53030467618053</v>
+        <v>57.53030467618052</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.48833609201628</v>
+        <v>79.48833609201637</v>
       </c>
       <c r="C34" t="n">
-        <v>65.68833093741677</v>
+        <v>65.68833093741685</v>
       </c>
       <c r="D34" t="n">
-        <v>49.30969533499515</v>
+        <v>49.30969533499524</v>
       </c>
       <c r="E34" t="n">
-        <v>48.2574451907746</v>
+        <v>48.25744519077469</v>
       </c>
       <c r="F34" t="n">
-        <v>48.72436951896091</v>
+        <v>48.724369518961</v>
       </c>
       <c r="G34" t="n">
-        <v>64.75147754526336</v>
+        <v>64.75147754526344</v>
       </c>
       <c r="H34" t="n">
-        <v>53.34609793795925</v>
+        <v>53.34609793795934</v>
       </c>
       <c r="I34" t="n">
-        <v>33.08368730955443</v>
+        <v>33.08368730955451</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66232683265949</v>
+        <v>34.66232683265957</v>
       </c>
       <c r="S34" t="n">
         <v>105.0262857884477</v>
       </c>
       <c r="T34" t="n">
-        <v>127.5577801408552</v>
+        <v>127.5577801408553</v>
       </c>
       <c r="U34" t="n">
         <v>182.0733530450871</v>
       </c>
       <c r="V34" t="n">
-        <v>155.8964724916419</v>
+        <v>155.896472491642</v>
       </c>
       <c r="W34" t="n">
-        <v>181.0633585622551</v>
+        <v>181.0633585622552</v>
       </c>
       <c r="X34" t="n">
-        <v>126.7084605580582</v>
+        <v>126.7084605580583</v>
       </c>
       <c r="Y34" t="n">
-        <v>117.5833283141259</v>
+        <v>117.583328314126</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>238.6094131399916</v>
+        <v>238.6094131399917</v>
       </c>
       <c r="C35" t="n">
         <v>226.6207300976734</v>
       </c>
       <c r="D35" t="n">
-        <v>217.6020341422013</v>
+        <v>217.6020341422014</v>
       </c>
       <c r="E35" t="n">
         <v>239.3441717121069</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>21.28498052934142</v>
+        <v>21.28498052934145</v>
       </c>
       <c r="T35" t="n">
-        <v>68.20541758475878</v>
+        <v>68.20541758475881</v>
       </c>
       <c r="U35" t="n">
         <v>100.7986343482722</v>
@@ -3332,7 +3332,7 @@
         <v>226.7161480908743</v>
       </c>
       <c r="Y35" t="n">
-        <v>238.112745887073</v>
+        <v>238.1127458870731</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>96.08621347328979</v>
       </c>
       <c r="I36" t="n">
-        <v>57.53030467618053</v>
+        <v>57.53030467618052</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>30.22612401468871</v>
+        <v>42.71344467201439</v>
       </c>
       <c r="C37" t="n">
-        <v>16.42611886008919</v>
+        <v>16.42611886008922</v>
       </c>
       <c r="D37" t="n">
-        <v>0.04748325766757944</v>
+        <v>0.04748325766760786</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>15.48926546793578</v>
+        <v>15.48926546793581</v>
       </c>
       <c r="H37" t="n">
-        <v>4.083885860631673</v>
+        <v>4.083885860631701</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>55.76407371112007</v>
+        <v>55.7640737111201</v>
       </c>
       <c r="T37" t="n">
-        <v>78.29556806352761</v>
+        <v>78.29556806352764</v>
       </c>
       <c r="U37" t="n">
-        <v>145.2984616250854</v>
+        <v>132.8111409677595</v>
       </c>
       <c r="V37" t="n">
         <v>106.6342604143143</v>
@@ -3487,10 +3487,10 @@
         <v>131.8011464849276</v>
       </c>
       <c r="X37" t="n">
-        <v>77.44624848073067</v>
+        <v>77.4462484807307</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.32111623679836</v>
+        <v>68.32111623679839</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>238.6094131399916</v>
+        <v>238.6094131399917</v>
       </c>
       <c r="C38" t="n">
         <v>226.6207300976734</v>
       </c>
       <c r="D38" t="n">
-        <v>217.6020341422013</v>
+        <v>217.6020341422014</v>
       </c>
       <c r="E38" t="n">
         <v>239.3441717121069</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>21.28498052934142</v>
+        <v>21.28498052934145</v>
       </c>
       <c r="T38" t="n">
-        <v>68.20541758475878</v>
+        <v>68.20541758475881</v>
       </c>
       <c r="U38" t="n">
         <v>100.7986343482722</v>
@@ -3569,7 +3569,7 @@
         <v>226.7161480908743</v>
       </c>
       <c r="Y38" t="n">
-        <v>238.112745887073</v>
+        <v>238.1127458870731</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>96.08621347328979</v>
       </c>
       <c r="I39" t="n">
-        <v>57.53030467618053</v>
+        <v>57.53030467618052</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.22612401468871</v>
+        <v>30.22612401468874</v>
       </c>
       <c r="C40" t="n">
-        <v>16.42611886008919</v>
+        <v>16.42611886008922</v>
       </c>
       <c r="D40" t="n">
-        <v>0.04748325766757944</v>
+        <v>0.04748325766760786</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>12.48732065732591</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>15.48926546793578</v>
+        <v>15.48926546793581</v>
       </c>
       <c r="H40" t="n">
-        <v>4.083885860631673</v>
+        <v>16.57120651795735</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>55.76407371112007</v>
+        <v>55.7640737111201</v>
       </c>
       <c r="T40" t="n">
-        <v>78.29556806352761</v>
+        <v>78.29556806352764</v>
       </c>
       <c r="U40" t="n">
         <v>132.8111409677595</v>
@@ -3724,10 +3724,10 @@
         <v>131.8011464849276</v>
       </c>
       <c r="X40" t="n">
-        <v>77.44624848073067</v>
+        <v>77.4462484807307</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.32111623679836</v>
+        <v>68.32111623679839</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>217.6020341422013</v>
       </c>
       <c r="E41" t="n">
-        <v>239.3441717121068</v>
+        <v>239.3441717121069</v>
       </c>
       <c r="F41" t="n">
         <v>258.515987800084</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>21.28498052934137</v>
+        <v>21.2849805293414</v>
       </c>
       <c r="T41" t="n">
-        <v>68.20541758475872</v>
+        <v>68.20541758475875</v>
       </c>
       <c r="U41" t="n">
-        <v>100.7986343482721</v>
+        <v>100.7986343482722</v>
       </c>
       <c r="V41" t="n">
         <v>182.1157903801707</v>
@@ -3837,7 +3837,7 @@
         <v>96.08621347328979</v>
       </c>
       <c r="I42" t="n">
-        <v>57.53030467618053</v>
+        <v>57.53030467618052</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30.22612401468865</v>
+        <v>30.22612401468868</v>
       </c>
       <c r="C43" t="n">
-        <v>16.42611886008913</v>
+        <v>16.42611886008916</v>
       </c>
       <c r="D43" t="n">
-        <v>0.04748325766752259</v>
+        <v>0.04748325766755102</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>15.48926546793573</v>
+        <v>15.48926546793576</v>
       </c>
       <c r="H43" t="n">
-        <v>4.083885860631616</v>
+        <v>16.57120651795791</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>55.76407371112001</v>
+        <v>55.76407371112004</v>
       </c>
       <c r="T43" t="n">
-        <v>78.29556806352755</v>
+        <v>78.29556806352758</v>
       </c>
       <c r="U43" t="n">
         <v>132.8111409677595</v>
       </c>
       <c r="V43" t="n">
-        <v>106.6342604143142</v>
+        <v>106.6342604143143</v>
       </c>
       <c r="W43" t="n">
         <v>131.8011464849275</v>
       </c>
       <c r="X43" t="n">
-        <v>77.44624848073062</v>
+        <v>77.44624848073065</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.80843689412471</v>
+        <v>68.32111623679833</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>238.6094131399916</v>
+        <v>238.6094131399917</v>
       </c>
       <c r="C44" t="n">
-        <v>226.6207300976733</v>
+        <v>226.6207300976734</v>
       </c>
       <c r="D44" t="n">
-        <v>217.6020341422013</v>
+        <v>217.6020341422014</v>
       </c>
       <c r="E44" t="n">
-        <v>239.3441717121068</v>
+        <v>239.3441717121069</v>
       </c>
       <c r="F44" t="n">
-        <v>258.515987800084</v>
+        <v>258.5159878000841</v>
       </c>
       <c r="G44" t="n">
-        <v>259.8972857971769</v>
+        <v>259.897285797177</v>
       </c>
       <c r="H44" t="n">
-        <v>172.3465089340659</v>
+        <v>172.346508934066</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>21.28498052934137</v>
+        <v>21.28498052934145</v>
       </c>
       <c r="T44" t="n">
-        <v>68.20541758475872</v>
+        <v>68.20541758475881</v>
       </c>
       <c r="U44" t="n">
-        <v>100.7986343482721</v>
+        <v>100.7986343482722</v>
       </c>
       <c r="V44" t="n">
-        <v>182.1157903801707</v>
+        <v>182.1157903801708</v>
       </c>
       <c r="W44" t="n">
-        <v>207.4158898581276</v>
+        <v>207.4158898581277</v>
       </c>
       <c r="X44" t="n">
-        <v>226.7161480908742</v>
+        <v>226.7161480908743</v>
       </c>
       <c r="Y44" t="n">
-        <v>238.112745887073</v>
+        <v>238.1127458870731</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>96.08621347328979</v>
       </c>
       <c r="I45" t="n">
-        <v>57.53030467618053</v>
+        <v>57.53030467618052</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30.22612401468865</v>
+        <v>30.22612401468874</v>
       </c>
       <c r="C46" t="n">
-        <v>16.42611886008913</v>
+        <v>16.42611886008922</v>
       </c>
       <c r="D46" t="n">
-        <v>0.04748325766752259</v>
+        <v>0.04748325766760786</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>15.48926546793573</v>
+        <v>15.48926546793581</v>
       </c>
       <c r="H46" t="n">
-        <v>16.57120651795805</v>
+        <v>4.083885860631701</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>55.76407371112001</v>
+        <v>55.7640737111201</v>
       </c>
       <c r="T46" t="n">
-        <v>78.29556806352755</v>
+        <v>78.29556806352764</v>
       </c>
       <c r="U46" t="n">
-        <v>132.8111409677595</v>
+        <v>145.2984616250851</v>
       </c>
       <c r="V46" t="n">
-        <v>106.6342604143142</v>
+        <v>106.6342604143143</v>
       </c>
       <c r="W46" t="n">
-        <v>131.8011464849275</v>
+        <v>131.8011464849276</v>
       </c>
       <c r="X46" t="n">
-        <v>77.44624848073062</v>
+        <v>77.4462484807307</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.3211162367983</v>
+        <v>68.32111623679839</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>710.4595583499363</v>
+        <v>838.7836142756852</v>
       </c>
       <c r="C11" t="n">
-        <v>431.7899197893292</v>
+        <v>838.7836142756852</v>
       </c>
       <c r="D11" t="n">
-        <v>431.7899197893292</v>
+        <v>838.7836142756852</v>
       </c>
       <c r="E11" t="n">
-        <v>140.2683200020217</v>
+        <v>547.2620144883776</v>
       </c>
       <c r="F11" t="n">
-        <v>140.2683200020217</v>
+        <v>236.3749439051336</v>
       </c>
       <c r="G11" t="n">
-        <v>88.44766153709756</v>
+        <v>40.38935010748629</v>
       </c>
       <c r="H11" t="n">
-        <v>88.44766153709756</v>
+        <v>40.38935010748629</v>
       </c>
       <c r="I11" t="n">
-        <v>40.38935010748625</v>
+        <v>40.38935010748629</v>
       </c>
       <c r="J11" t="n">
-        <v>40.38935010748625</v>
+        <v>158.7671721551106</v>
       </c>
       <c r="K11" t="n">
-        <v>40.38935010748625</v>
+        <v>468.4180589968547</v>
       </c>
       <c r="L11" t="n">
-        <v>350.6282166706348</v>
+        <v>902.5373722276022</v>
       </c>
       <c r="M11" t="n">
-        <v>839.8192568373607</v>
+        <v>993.1136474418771</v>
       </c>
       <c r="N11" t="n">
-        <v>1315.655091073233</v>
+        <v>1468.949481677749</v>
       </c>
       <c r="O11" t="n">
-        <v>1712.730386904785</v>
+        <v>1866.024777509301</v>
       </c>
       <c r="P11" t="n">
-        <v>2019.467505374312</v>
+        <v>1866.024777509301</v>
       </c>
       <c r="Q11" t="n">
-        <v>2019.467505374312</v>
+        <v>2019.467505374314</v>
       </c>
       <c r="R11" t="n">
-        <v>2019.467505374312</v>
+        <v>2019.467505374314</v>
       </c>
       <c r="S11" t="n">
-        <v>1948.207714862526</v>
+        <v>2019.467505374314</v>
       </c>
       <c r="T11" t="n">
-        <v>1829.553543486681</v>
+        <v>1900.813333998469</v>
       </c>
       <c r="U11" t="n">
-        <v>1829.553543486681</v>
+        <v>1900.813333998469</v>
       </c>
       <c r="V11" t="n">
-        <v>1829.553543486681</v>
+        <v>1667.098180000996</v>
       </c>
       <c r="W11" t="n">
-        <v>1570.282733450867</v>
+        <v>1407.827369965183</v>
       </c>
       <c r="X11" t="n">
-        <v>1291.516713078946</v>
+        <v>1129.061349593262</v>
       </c>
       <c r="Y11" t="n">
-        <v>1001.23897776137</v>
+        <v>838.7836142756852</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>653.2101849584888</v>
+        <v>602.6668334343184</v>
       </c>
       <c r="C12" t="n">
-        <v>491.5065121994435</v>
+        <v>544.2272807818587</v>
       </c>
       <c r="D12" t="n">
-        <v>352.6678751896555</v>
+        <v>405.3886437720707</v>
       </c>
       <c r="E12" t="n">
-        <v>205.6398652465268</v>
+        <v>258.360633828942</v>
       </c>
       <c r="F12" t="n">
-        <v>70.94606719640112</v>
+        <v>123.6668357788163</v>
       </c>
       <c r="G12" t="n">
-        <v>45.78000038989993</v>
+        <v>98.5007689723151</v>
       </c>
       <c r="H12" t="n">
-        <v>40.38935010748625</v>
+        <v>98.5007689723151</v>
       </c>
       <c r="I12" t="n">
-        <v>40.38935010748625</v>
+        <v>40.38935010748629</v>
       </c>
       <c r="J12" t="n">
-        <v>128.2666767534135</v>
+        <v>40.38935010748629</v>
       </c>
       <c r="K12" t="n">
-        <v>404.9696438818086</v>
+        <v>40.38935010748629</v>
       </c>
       <c r="L12" t="n">
-        <v>504.8652248399699</v>
+        <v>469.6941130383934</v>
       </c>
       <c r="M12" t="n">
-        <v>1004.683432420112</v>
+        <v>969.5123206185361</v>
       </c>
       <c r="N12" t="n">
-        <v>1004.683432420112</v>
+        <v>1199.776683021991</v>
       </c>
       <c r="O12" t="n">
-        <v>1466.447222003771</v>
+        <v>1661.54047260565</v>
       </c>
       <c r="P12" t="n">
-        <v>1824.374254772436</v>
+        <v>2019.467505374314</v>
       </c>
       <c r="Q12" t="n">
-        <v>2019.467505374312</v>
+        <v>2019.467505374314</v>
       </c>
       <c r="R12" t="n">
-        <v>2019.467505374312</v>
+        <v>2019.467505374314</v>
       </c>
       <c r="S12" t="n">
-        <v>1975.473172811478</v>
+        <v>1872.209052704894</v>
       </c>
       <c r="T12" t="n">
-        <v>1891.254600072973</v>
+        <v>1684.726359859804</v>
       </c>
       <c r="U12" t="n">
-        <v>1672.779433530732</v>
+        <v>1518.971961899976</v>
       </c>
       <c r="V12" t="n">
-        <v>1444.383810979066</v>
+        <v>1290.57633934831</v>
       </c>
       <c r="W12" t="n">
-        <v>1203.067942212376</v>
+        <v>1049.26047058162</v>
       </c>
       <c r="X12" t="n">
-        <v>1005.150954090171</v>
+        <v>851.343482459415</v>
       </c>
       <c r="Y12" t="n">
-        <v>812.6296277397496</v>
+        <v>762.0862762155793</v>
       </c>
     </row>
     <row r="13">
@@ -5194,7 +5194,7 @@
         <v>73.8072160767332</v>
       </c>
       <c r="I13" t="n">
-        <v>40.38935010748625</v>
+        <v>40.38935010748629</v>
       </c>
       <c r="J13" t="n">
         <v>100.0663101762934</v>
@@ -5206,7 +5206,7 @@
         <v>501.6167201631968</v>
       </c>
       <c r="M13" t="n">
-        <v>759.242868347272</v>
+        <v>759.2428683472718</v>
       </c>
       <c r="N13" t="n">
         <v>1016.384227728628</v>
@@ -5233,16 +5233,16 @@
         <v>1074.632844847913</v>
       </c>
       <c r="V13" t="n">
-        <v>917.1616605129211</v>
+        <v>917.1616605129213</v>
       </c>
       <c r="W13" t="n">
-        <v>734.2693791369059</v>
+        <v>734.2693791369061</v>
       </c>
       <c r="X13" t="n">
-        <v>606.2810351388673</v>
+        <v>606.2810351388674</v>
       </c>
       <c r="Y13" t="n">
-        <v>487.5099964377299</v>
+        <v>487.50999643773</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1286.768839737605</v>
+        <v>1203.02049878392</v>
       </c>
       <c r="C14" t="n">
-        <v>1213.27617568544</v>
+        <v>924.3508602233123</v>
       </c>
       <c r="D14" t="n">
-        <v>943.7163310192489</v>
+        <v>924.3508602233123</v>
       </c>
       <c r="E14" t="n">
-        <v>943.7163310192489</v>
+        <v>632.8292604360048</v>
       </c>
       <c r="F14" t="n">
-        <v>632.8292604360047</v>
+        <v>632.8292604360048</v>
       </c>
       <c r="G14" t="n">
-        <v>320.5469393506465</v>
+        <v>320.5469393506466</v>
       </c>
       <c r="H14" t="n">
-        <v>96.69974640984508</v>
+        <v>96.69974640984501</v>
       </c>
       <c r="I14" t="n">
-        <v>48.64143498023376</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="J14" t="n">
-        <v>48.64143498023376</v>
+        <v>167.0192570278581</v>
       </c>
       <c r="K14" t="n">
-        <v>358.2923218219779</v>
+        <v>175.6704192122471</v>
       </c>
       <c r="L14" t="n">
-        <v>792.4116350527254</v>
+        <v>609.7897324429947</v>
       </c>
       <c r="M14" t="n">
-        <v>1281.602675219451</v>
+        <v>1098.980772609721</v>
       </c>
       <c r="N14" t="n">
-        <v>1757.438509455324</v>
+        <v>1574.816606845593</v>
       </c>
       <c r="O14" t="n">
-        <v>2154.513805286876</v>
+        <v>1971.891902677145</v>
       </c>
       <c r="P14" t="n">
-        <v>2432.071749011688</v>
+        <v>2278.629021146673</v>
       </c>
       <c r="Q14" t="n">
-        <v>2432.071749011688</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="R14" t="n">
-        <v>2432.071749011688</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.811958499901</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.811958499901</v>
+        <v>2313.417577635842</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.811958499901</v>
+        <v>2161.840965084731</v>
       </c>
       <c r="V14" t="n">
-        <v>2127.096804502428</v>
+        <v>1928.125811087257</v>
       </c>
       <c r="W14" t="n">
-        <v>1867.825994466615</v>
+        <v>1772.565938567274</v>
       </c>
       <c r="X14" t="n">
-        <v>1867.825994466615</v>
+        <v>1493.799918195353</v>
       </c>
       <c r="Y14" t="n">
-        <v>1577.548259149038</v>
+        <v>1493.799918195353</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>818.0234972352164</v>
+        <v>818.0234972352146</v>
       </c>
       <c r="C15" t="n">
-        <v>656.3198244761711</v>
+        <v>656.3198244761693</v>
       </c>
       <c r="D15" t="n">
-        <v>517.4811874663832</v>
+        <v>517.4811874663814</v>
       </c>
       <c r="E15" t="n">
-        <v>370.4531775232544</v>
+        <v>370.4531775232526</v>
       </c>
       <c r="F15" t="n">
-        <v>235.7593794731287</v>
+        <v>332.2398220443006</v>
       </c>
       <c r="G15" t="n">
-        <v>107.329192560042</v>
+        <v>203.8096351312138</v>
       </c>
       <c r="H15" t="n">
-        <v>106.7528538450626</v>
+        <v>106.7528538450625</v>
       </c>
       <c r="I15" t="n">
-        <v>48.64143498023376</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="J15" t="n">
-        <v>136.518761626161</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="K15" t="n">
-        <v>413.2217287545561</v>
+        <v>325.3444021086288</v>
       </c>
       <c r="L15" t="n">
-        <v>842.5264916854632</v>
+        <v>754.649165039536</v>
       </c>
       <c r="M15" t="n">
-        <v>1401.641415926746</v>
+        <v>1313.764089280819</v>
       </c>
       <c r="N15" t="n">
-        <v>1417.287676057488</v>
+        <v>1901.072024875654</v>
       </c>
       <c r="O15" t="n">
-        <v>1879.051465641147</v>
+        <v>2362.835814459313</v>
       </c>
       <c r="P15" t="n">
-        <v>2236.978498409811</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="Q15" t="n">
-        <v>2432.071749011688</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="R15" t="n">
-        <v>2390.809057864211</v>
+        <v>2390.809057864209</v>
       </c>
       <c r="S15" t="n">
-        <v>2243.550605194791</v>
+        <v>2243.550605194789</v>
       </c>
       <c r="T15" t="n">
-        <v>2056.067912349701</v>
+        <v>2056.067912349699</v>
       </c>
       <c r="U15" t="n">
-        <v>1837.59274580746</v>
+        <v>1837.592745807458</v>
       </c>
       <c r="V15" t="n">
-        <v>1609.197123255794</v>
+        <v>1609.197123255792</v>
       </c>
       <c r="W15" t="n">
-        <v>1367.881254489104</v>
+        <v>1367.881254489102</v>
       </c>
       <c r="X15" t="n">
-        <v>1169.964266366899</v>
+        <v>1169.964266366897</v>
       </c>
       <c r="Y15" t="n">
-        <v>977.4429400164773</v>
+        <v>977.4429400164755</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.4708327326833</v>
+        <v>415.4708327326836</v>
       </c>
       <c r="C16" t="n">
-        <v>349.1189833009491</v>
+        <v>349.1189833009494</v>
       </c>
       <c r="D16" t="n">
-        <v>299.3112102352974</v>
+        <v>299.3112102352976</v>
       </c>
       <c r="E16" t="n">
-        <v>250.5663161032018</v>
+        <v>250.566316103202</v>
       </c>
       <c r="F16" t="n">
-        <v>201.3497812355645</v>
+        <v>201.3497812355646</v>
       </c>
       <c r="G16" t="n">
-        <v>135.9442483615611</v>
+        <v>135.9442483615612</v>
       </c>
       <c r="H16" t="n">
-        <v>82.05930094948073</v>
+        <v>82.05930094948113</v>
       </c>
       <c r="I16" t="n">
-        <v>48.64143498023376</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="J16" t="n">
-        <v>108.3183950490407</v>
+        <v>108.3183950490409</v>
       </c>
       <c r="K16" t="n">
-        <v>271.6100887342693</v>
+        <v>271.6100887342695</v>
       </c>
       <c r="L16" t="n">
-        <v>509.8688050359441</v>
+        <v>509.8688050359443</v>
       </c>
       <c r="M16" t="n">
-        <v>767.4949532200192</v>
+        <v>767.4949532200194</v>
       </c>
       <c r="N16" t="n">
-        <v>1024.636312601375</v>
+        <v>1024.636312601376</v>
       </c>
       <c r="O16" t="n">
         <v>1258.955544080621</v>
@@ -5470,16 +5470,16 @@
         <v>1082.884929720661</v>
       </c>
       <c r="V16" t="n">
-        <v>925.413745385669</v>
+        <v>925.4137453856692</v>
       </c>
       <c r="W16" t="n">
-        <v>742.5214640096536</v>
+        <v>742.5214640096539</v>
       </c>
       <c r="X16" t="n">
-        <v>614.533120011615</v>
+        <v>614.5331200116152</v>
       </c>
       <c r="Y16" t="n">
-        <v>495.7620813104776</v>
+        <v>495.7620813104779</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1307.850359533023</v>
+        <v>1307.850359533022</v>
       </c>
       <c r="C17" t="n">
-        <v>1100.440511484203</v>
+        <v>1100.440511484202</v>
       </c>
       <c r="D17" t="n">
-        <v>902.140457329799</v>
+        <v>902.1404573297976</v>
       </c>
       <c r="E17" t="n">
-        <v>681.8786480542783</v>
+        <v>681.8786480542769</v>
       </c>
       <c r="F17" t="n">
-        <v>442.2513679828211</v>
+        <v>442.2513679828197</v>
       </c>
       <c r="G17" t="n">
         <v>201.2288374092484</v>
       </c>
       <c r="H17" t="n">
-        <v>48.64143498023376</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="I17" t="n">
-        <v>48.64143498023376</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="J17" t="n">
-        <v>48.64143498023376</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="K17" t="n">
-        <v>358.2923218219779</v>
+        <v>175.6704192122475</v>
       </c>
       <c r="L17" t="n">
-        <v>792.4116350527254</v>
+        <v>609.789732442995</v>
       </c>
       <c r="M17" t="n">
-        <v>1281.602675219451</v>
+        <v>1098.980772609721</v>
       </c>
       <c r="N17" t="n">
-        <v>1757.438509455324</v>
+        <v>1574.816606845593</v>
       </c>
       <c r="O17" t="n">
-        <v>2154.513805286876</v>
+        <v>1971.891902677145</v>
       </c>
       <c r="P17" t="n">
-        <v>2432.071749011688</v>
+        <v>2278.629021146673</v>
       </c>
       <c r="Q17" t="n">
-        <v>2432.071749011688</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="R17" t="n">
-        <v>2432.071749011688</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="S17" t="n">
-        <v>2432.071749011688</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="T17" t="n">
-        <v>2384.67736814763</v>
+        <v>2384.677368147628</v>
       </c>
       <c r="U17" t="n">
-        <v>2304.360546108306</v>
+        <v>2304.360546108305</v>
       </c>
       <c r="V17" t="n">
-        <v>2141.90518262262</v>
+        <v>2141.905182622619</v>
       </c>
       <c r="W17" t="n">
-        <v>1953.894163098593</v>
+        <v>1953.894163098592</v>
       </c>
       <c r="X17" t="n">
-        <v>1746.387933238459</v>
+        <v>1746.387933238458</v>
       </c>
       <c r="Y17" t="n">
-        <v>1527.36998843267</v>
+        <v>1527.369988432668</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>818.0234972352164</v>
+        <v>818.0234972352146</v>
       </c>
       <c r="C18" t="n">
-        <v>656.3198244761711</v>
+        <v>752.800267047343</v>
       </c>
       <c r="D18" t="n">
-        <v>517.4811874663832</v>
+        <v>613.9616300375551</v>
       </c>
       <c r="E18" t="n">
-        <v>370.4531775232544</v>
+        <v>466.9336200944263</v>
       </c>
       <c r="F18" t="n">
-        <v>235.7593794731287</v>
+        <v>332.2398220443006</v>
       </c>
       <c r="G18" t="n">
-        <v>107.329192560042</v>
+        <v>203.8096351312138</v>
       </c>
       <c r="H18" t="n">
-        <v>48.64143498023376</v>
+        <v>106.7528538450625</v>
       </c>
       <c r="I18" t="n">
-        <v>48.64143498023376</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="J18" t="n">
         <v>136.518761626161</v>
       </c>
       <c r="K18" t="n">
-        <v>413.2217287545561</v>
+        <v>394.5803366610024</v>
       </c>
       <c r="L18" t="n">
-        <v>842.5264916854632</v>
+        <v>823.8850995919095</v>
       </c>
       <c r="M18" t="n">
-        <v>1401.641415926746</v>
+        <v>1383.000023833192</v>
       </c>
       <c r="N18" t="n">
-        <v>1417.287676057488</v>
+        <v>1970.307959428027</v>
       </c>
       <c r="O18" t="n">
-        <v>1879.051465641147</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="P18" t="n">
-        <v>2236.978498409811</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="Q18" t="n">
-        <v>2432.071749011688</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="R18" t="n">
-        <v>2390.809057864211</v>
+        <v>2390.809057864209</v>
       </c>
       <c r="S18" t="n">
-        <v>2243.550605194791</v>
+        <v>2243.550605194789</v>
       </c>
       <c r="T18" t="n">
-        <v>2056.067912349701</v>
+        <v>2056.067912349699</v>
       </c>
       <c r="U18" t="n">
-        <v>1837.59274580746</v>
+        <v>1837.592745807458</v>
       </c>
       <c r="V18" t="n">
-        <v>1609.197123255794</v>
+        <v>1609.197123255792</v>
       </c>
       <c r="W18" t="n">
-        <v>1367.881254489104</v>
+        <v>1367.881254489102</v>
       </c>
       <c r="X18" t="n">
-        <v>1169.964266366899</v>
+        <v>1169.964266366897</v>
       </c>
       <c r="Y18" t="n">
-        <v>977.4429400164773</v>
+        <v>977.4429400164755</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>269.665594917993</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="C19" t="n">
-        <v>269.665594917993</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="D19" t="n">
-        <v>269.665594917993</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="E19" t="n">
-        <v>269.665594917993</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="F19" t="n">
-        <v>117.1849399437701</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="G19" t="n">
-        <v>48.64143498023376</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="H19" t="n">
-        <v>48.64143498023376</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="I19" t="n">
-        <v>48.64143498023376</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="J19" t="n">
-        <v>48.64143498023376</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="K19" t="n">
         <v>110.7239645489979</v>
       </c>
       <c r="L19" t="n">
-        <v>247.7735167342082</v>
+        <v>247.7735167342081</v>
       </c>
       <c r="M19" t="n">
         <v>404.1905008018188</v>
@@ -5692,31 +5692,31 @@
         <v>785.8472455635844</v>
       </c>
       <c r="Q19" t="n">
-        <v>785.8472455635844</v>
+        <v>768.2520046402585</v>
       </c>
       <c r="R19" t="n">
-        <v>785.8472455635844</v>
+        <v>768.2520046402585</v>
       </c>
       <c r="S19" t="n">
-        <v>751.0198787133029</v>
+        <v>733.4246377899771</v>
       </c>
       <c r="T19" t="n">
-        <v>693.4334266585694</v>
+        <v>675.8381857352435</v>
       </c>
       <c r="U19" t="n">
-        <v>580.7807393470359</v>
+        <v>563.1854984237101</v>
       </c>
       <c r="V19" t="n">
-        <v>494.569345523831</v>
+        <v>476.9741046005051</v>
       </c>
       <c r="W19" t="n">
-        <v>382.9368546596025</v>
+        <v>336.4366053402158</v>
       </c>
       <c r="X19" t="n">
-        <v>326.2083011733508</v>
+        <v>105.1841412355916</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.6970529840003</v>
+        <v>57.67289304624111</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1307.850359533023</v>
+        <v>1307.850359533021</v>
       </c>
       <c r="C20" t="n">
-        <v>1100.440511484202</v>
+        <v>1100.440511484201</v>
       </c>
       <c r="D20" t="n">
-        <v>902.1404573297982</v>
+        <v>902.1404573297972</v>
       </c>
       <c r="E20" t="n">
-        <v>681.8786480542774</v>
+        <v>681.8786480542765</v>
       </c>
       <c r="F20" t="n">
-        <v>442.2513679828201</v>
+        <v>442.2513679828193</v>
       </c>
       <c r="G20" t="n">
         <v>201.2288374092484</v>
       </c>
       <c r="H20" t="n">
-        <v>48.64143498023376</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="I20" t="n">
-        <v>48.64143498023376</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="J20" t="n">
-        <v>48.64143498023376</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="K20" t="n">
-        <v>358.2923218219779</v>
+        <v>358.2923218219777</v>
       </c>
       <c r="L20" t="n">
-        <v>792.4116350527254</v>
+        <v>792.4116350527253</v>
       </c>
       <c r="M20" t="n">
-        <v>1281.602675219451</v>
+        <v>1098.980772609721</v>
       </c>
       <c r="N20" t="n">
-        <v>1757.438509455324</v>
+        <v>1574.816606845593</v>
       </c>
       <c r="O20" t="n">
-        <v>2154.513805286876</v>
+        <v>1971.891902677145</v>
       </c>
       <c r="P20" t="n">
-        <v>2432.071749011688</v>
+        <v>2278.629021146673</v>
       </c>
       <c r="Q20" t="n">
-        <v>2432.071749011688</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="R20" t="n">
-        <v>2432.071749011688</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="S20" t="n">
-        <v>2432.071749011688</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="T20" t="n">
-        <v>2384.67736814763</v>
+        <v>2384.677368147628</v>
       </c>
       <c r="U20" t="n">
-        <v>2304.360546108307</v>
+        <v>2304.360546108304</v>
       </c>
       <c r="V20" t="n">
-        <v>2141.90518262262</v>
+        <v>2141.905182622618</v>
       </c>
       <c r="W20" t="n">
-        <v>1953.894163098594</v>
+        <v>1953.894163098592</v>
       </c>
       <c r="X20" t="n">
-        <v>1746.387933238459</v>
+        <v>1746.387933238457</v>
       </c>
       <c r="Y20" t="n">
-        <v>1527.36998843267</v>
+        <v>1527.369988432668</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>818.0234972352164</v>
+        <v>914.5039398063883</v>
       </c>
       <c r="C21" t="n">
-        <v>656.3198244761711</v>
+        <v>752.800267047343</v>
       </c>
       <c r="D21" t="n">
-        <v>517.4811874663832</v>
+        <v>613.9616300375551</v>
       </c>
       <c r="E21" t="n">
-        <v>370.4531775232544</v>
+        <v>466.9336200944263</v>
       </c>
       <c r="F21" t="n">
-        <v>235.7593794731287</v>
+        <v>332.2398220443006</v>
       </c>
       <c r="G21" t="n">
-        <v>107.329192560042</v>
+        <v>203.8096351312138</v>
       </c>
       <c r="H21" t="n">
-        <v>106.7528538450626</v>
+        <v>106.7528538450625</v>
       </c>
       <c r="I21" t="n">
-        <v>48.64143498023376</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="J21" t="n">
         <v>136.518761626161</v>
       </c>
       <c r="K21" t="n">
-        <v>413.2217287545561</v>
+        <v>413.221728754556</v>
       </c>
       <c r="L21" t="n">
-        <v>842.5264916854632</v>
+        <v>842.526491685463</v>
       </c>
       <c r="M21" t="n">
-        <v>1401.641415926746</v>
+        <v>1291.74353004631</v>
       </c>
       <c r="N21" t="n">
-        <v>1417.287676057488</v>
+        <v>1879.051465641145</v>
       </c>
       <c r="O21" t="n">
-        <v>1879.051465641147</v>
+        <v>1879.051465641145</v>
       </c>
       <c r="P21" t="n">
-        <v>2236.978498409811</v>
+        <v>2236.97849840981</v>
       </c>
       <c r="Q21" t="n">
-        <v>2432.071749011688</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="R21" t="n">
-        <v>2390.809057864211</v>
+        <v>2390.809057864209</v>
       </c>
       <c r="S21" t="n">
-        <v>2243.550605194791</v>
+        <v>2243.550605194789</v>
       </c>
       <c r="T21" t="n">
-        <v>2056.067912349701</v>
+        <v>2056.067912349699</v>
       </c>
       <c r="U21" t="n">
-        <v>1837.59274580746</v>
+        <v>1934.073188378632</v>
       </c>
       <c r="V21" t="n">
-        <v>1609.197123255794</v>
+        <v>1705.677565826966</v>
       </c>
       <c r="W21" t="n">
-        <v>1367.881254489104</v>
+        <v>1464.361697060276</v>
       </c>
       <c r="X21" t="n">
-        <v>1169.964266366899</v>
+        <v>1266.44470893807</v>
       </c>
       <c r="Y21" t="n">
-        <v>977.4429400164773</v>
+        <v>1073.923382587649</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.64143498023376</v>
+        <v>217.3110879608227</v>
       </c>
       <c r="C22" t="n">
-        <v>48.64143498023376</v>
+        <v>217.3110879608227</v>
       </c>
       <c r="D22" t="n">
-        <v>48.64143498023376</v>
+        <v>217.3110879608227</v>
       </c>
       <c r="E22" t="n">
-        <v>48.64143498023376</v>
+        <v>217.3110879608227</v>
       </c>
       <c r="F22" t="n">
-        <v>48.64143498023376</v>
+        <v>217.3110879608227</v>
       </c>
       <c r="G22" t="n">
-        <v>48.64143498023376</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="H22" t="n">
-        <v>48.64143498023376</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="I22" t="n">
-        <v>48.64143498023376</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="J22" t="n">
-        <v>48.64143498023376</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="K22" t="n">
         <v>110.7239645489979</v>
       </c>
       <c r="L22" t="n">
-        <v>247.7735167342082</v>
+        <v>247.7735167342081</v>
       </c>
       <c r="M22" t="n">
         <v>404.1905008018188</v>
@@ -5935,25 +5935,25 @@
         <v>768.2520046402585</v>
       </c>
       <c r="S22" t="n">
-        <v>704.5196293939168</v>
+        <v>733.4246377899771</v>
       </c>
       <c r="T22" t="n">
-        <v>646.9331773391832</v>
+        <v>675.8381857352435</v>
       </c>
       <c r="U22" t="n">
-        <v>359.7565794092774</v>
+        <v>563.1854984237101</v>
       </c>
       <c r="V22" t="n">
-        <v>273.5451855860723</v>
+        <v>476.9741046005051</v>
       </c>
       <c r="W22" t="n">
-        <v>161.9126947218438</v>
+        <v>365.3416137362767</v>
       </c>
       <c r="X22" t="n">
-        <v>105.1841412355919</v>
+        <v>273.8537942161806</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.67289304624126</v>
+        <v>226.3425460268301</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1307.850359533022</v>
+        <v>1307.850359533021</v>
       </c>
       <c r="C23" t="n">
-        <v>1100.440511484202</v>
+        <v>1100.440511484201</v>
       </c>
       <c r="D23" t="n">
-        <v>902.1404573297982</v>
+        <v>902.1404573297973</v>
       </c>
       <c r="E23" t="n">
-        <v>681.8786480542774</v>
+        <v>681.8786480542767</v>
       </c>
       <c r="F23" t="n">
-        <v>442.2513679828201</v>
+        <v>442.2513679828198</v>
       </c>
       <c r="G23" t="n">
-        <v>201.2288374092486</v>
+        <v>201.2288374092485</v>
       </c>
       <c r="H23" t="n">
-        <v>48.64143498023376</v>
+        <v>48.64143498023375</v>
       </c>
       <c r="I23" t="n">
-        <v>48.64143498023376</v>
+        <v>48.64143498023375</v>
       </c>
       <c r="J23" t="n">
-        <v>167.0192570278581</v>
+        <v>48.64143498023375</v>
       </c>
       <c r="K23" t="n">
-        <v>476.6701438696022</v>
+        <v>175.6704192122484</v>
       </c>
       <c r="L23" t="n">
-        <v>910.7894571003496</v>
+        <v>609.789732442996</v>
       </c>
       <c r="M23" t="n">
-        <v>1399.980497267076</v>
+        <v>1098.980772609722</v>
       </c>
       <c r="N23" t="n">
-        <v>1875.816331502948</v>
+        <v>1574.816606845594</v>
       </c>
       <c r="O23" t="n">
-        <v>2272.8916273345</v>
+        <v>1971.891902677146</v>
       </c>
       <c r="P23" t="n">
-        <v>2278.629021146675</v>
+        <v>2278.629021146674</v>
       </c>
       <c r="Q23" t="n">
-        <v>2432.071749011688</v>
+        <v>2432.071749011687</v>
       </c>
       <c r="R23" t="n">
-        <v>2432.071749011688</v>
+        <v>2432.071749011687</v>
       </c>
       <c r="S23" t="n">
-        <v>2432.071749011688</v>
+        <v>2432.071749011687</v>
       </c>
       <c r="T23" t="n">
-        <v>2384.67736814763</v>
+        <v>2384.677368147629</v>
       </c>
       <c r="U23" t="n">
-        <v>2304.360546108306</v>
+        <v>2304.360546108305</v>
       </c>
       <c r="V23" t="n">
-        <v>2141.90518262262</v>
+        <v>2141.905182622619</v>
       </c>
       <c r="W23" t="n">
-        <v>1953.894163098593</v>
+        <v>1953.894163098592</v>
       </c>
       <c r="X23" t="n">
-        <v>1746.387933238459</v>
+        <v>1746.387933238458</v>
       </c>
       <c r="Y23" t="n">
-        <v>1527.369988432669</v>
+        <v>1527.369988432668</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>818.0234972352164</v>
+        <v>859.2861883826927</v>
       </c>
       <c r="C24" t="n">
-        <v>656.3198244761711</v>
+        <v>697.5825156236474</v>
       </c>
       <c r="D24" t="n">
-        <v>517.4811874663832</v>
+        <v>558.7438786138595</v>
       </c>
       <c r="E24" t="n">
-        <v>370.4531775232544</v>
+        <v>411.7158686707307</v>
       </c>
       <c r="F24" t="n">
-        <v>235.7593794731287</v>
+        <v>277.0220706206051</v>
       </c>
       <c r="G24" t="n">
-        <v>203.8096351312139</v>
+        <v>148.5918837075183</v>
       </c>
       <c r="H24" t="n">
         <v>106.7528538450626</v>
       </c>
       <c r="I24" t="n">
-        <v>48.64143498023376</v>
+        <v>48.64143498023375</v>
       </c>
       <c r="J24" t="n">
-        <v>48.64143498023376</v>
+        <v>48.64143498023375</v>
       </c>
       <c r="K24" t="n">
-        <v>325.3444021086289</v>
+        <v>325.3444021086287</v>
       </c>
       <c r="L24" t="n">
-        <v>754.649165039536</v>
+        <v>754.6491650395358</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.764089280818</v>
+        <v>829.9797404626519</v>
       </c>
       <c r="N24" t="n">
-        <v>1879.051465641147</v>
+        <v>1417.287676057487</v>
       </c>
       <c r="O24" t="n">
-        <v>1879.051465641147</v>
+        <v>1879.051465641146</v>
       </c>
       <c r="P24" t="n">
         <v>2236.978498409811</v>
       </c>
       <c r="Q24" t="n">
-        <v>2432.071749011688</v>
+        <v>2432.071749011687</v>
       </c>
       <c r="R24" t="n">
-        <v>2390.809057864211</v>
+        <v>2432.071749011687</v>
       </c>
       <c r="S24" t="n">
-        <v>2243.550605194791</v>
+        <v>2284.813296342267</v>
       </c>
       <c r="T24" t="n">
-        <v>2056.067912349701</v>
+        <v>2097.330603497177</v>
       </c>
       <c r="U24" t="n">
-        <v>1837.59274580746</v>
+        <v>1878.855436954936</v>
       </c>
       <c r="V24" t="n">
-        <v>1609.197123255794</v>
+        <v>1650.45981440327</v>
       </c>
       <c r="W24" t="n">
-        <v>1367.881254489104</v>
+        <v>1409.14394563658</v>
       </c>
       <c r="X24" t="n">
-        <v>1169.964266366899</v>
+        <v>1211.226957514375</v>
       </c>
       <c r="Y24" t="n">
-        <v>977.4429400164773</v>
+        <v>1018.705631163954</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>91.01691100069836</v>
+        <v>77.54644337629446</v>
       </c>
       <c r="C25" t="n">
-        <v>91.01691100069836</v>
+        <v>77.54644337629446</v>
       </c>
       <c r="D25" t="n">
-        <v>91.01691100069836</v>
+        <v>48.64143498023375</v>
       </c>
       <c r="E25" t="n">
-        <v>91.01691100069836</v>
+        <v>48.64143498023375</v>
       </c>
       <c r="F25" t="n">
-        <v>91.01691100069836</v>
+        <v>48.64143498023375</v>
       </c>
       <c r="G25" t="n">
-        <v>91.01691100069836</v>
+        <v>48.64143498023375</v>
       </c>
       <c r="H25" t="n">
-        <v>91.01691100069836</v>
+        <v>48.64143498023375</v>
       </c>
       <c r="I25" t="n">
-        <v>91.01691100069836</v>
+        <v>48.64143498023375</v>
       </c>
       <c r="J25" t="n">
-        <v>48.64143498023376</v>
+        <v>48.64143498023375</v>
       </c>
       <c r="K25" t="n">
         <v>110.7239645489979</v>
       </c>
       <c r="L25" t="n">
-        <v>247.7735167342082</v>
+        <v>247.7735167342081</v>
       </c>
       <c r="M25" t="n">
         <v>404.1905008018188</v>
@@ -6169,28 +6169,28 @@
         <v>768.2520046402585</v>
       </c>
       <c r="R25" t="n">
-        <v>629.9754331875522</v>
+        <v>768.2520046402585</v>
       </c>
       <c r="S25" t="n">
-        <v>572.3711947960091</v>
+        <v>558.9007271716046</v>
       </c>
       <c r="T25" t="n">
-        <v>514.7847427412755</v>
+        <v>501.314275116871</v>
       </c>
       <c r="U25" t="n">
-        <v>402.132055429742</v>
+        <v>388.6615878053375</v>
       </c>
       <c r="V25" t="n">
-        <v>315.9206616065369</v>
+        <v>302.4501939821326</v>
       </c>
       <c r="W25" t="n">
-        <v>204.2881707423084</v>
+        <v>190.8177031179041</v>
       </c>
       <c r="X25" t="n">
-        <v>147.5596172560564</v>
+        <v>134.0891496316523</v>
       </c>
       <c r="Y25" t="n">
-        <v>100.0483690667059</v>
+        <v>86.57790144230185</v>
       </c>
     </row>
     <row r="26">
@@ -6212,43 +6212,43 @@
         <v>965.0570530313842</v>
       </c>
       <c r="F26" t="n">
-        <v>654.1699824481401</v>
+        <v>654.16998244814</v>
       </c>
       <c r="G26" t="n">
-        <v>341.8876613627819</v>
+        <v>341.8876613627817</v>
       </c>
       <c r="H26" t="n">
-        <v>118.0404684219804</v>
+        <v>118.0404684219803</v>
       </c>
       <c r="I26" t="n">
-        <v>69.98215699236901</v>
+        <v>69.982156992369</v>
       </c>
       <c r="J26" t="n">
-        <v>188.3599790399934</v>
+        <v>289.5691431564578</v>
       </c>
       <c r="K26" t="n">
-        <v>599.2200299982019</v>
+        <v>700.4291941146664</v>
       </c>
       <c r="L26" t="n">
-        <v>1134.548507345414</v>
+        <v>1235.757671461879</v>
       </c>
       <c r="M26" t="n">
-        <v>1724.948711628604</v>
+        <v>1724.948711628605</v>
       </c>
       <c r="N26" t="n">
-        <v>2291.524683130151</v>
+        <v>2291.52468313015</v>
       </c>
       <c r="O26" t="n">
-        <v>2789.809143078167</v>
+        <v>2789.809143078166</v>
       </c>
       <c r="P26" t="n">
-        <v>3197.755425664159</v>
+        <v>3197.755425664158</v>
       </c>
       <c r="Q26" t="n">
-        <v>3452.407317645637</v>
+        <v>3452.407317645636</v>
       </c>
       <c r="R26" t="n">
-        <v>3499.107849618451</v>
+        <v>3499.10784961845</v>
       </c>
       <c r="S26" t="n">
         <v>3427.848059106663</v>
@@ -6300,28 +6300,28 @@
         <v>128.0935758571978</v>
       </c>
       <c r="I27" t="n">
-        <v>69.98215699236901</v>
+        <v>69.982156992369</v>
       </c>
       <c r="J27" t="n">
-        <v>69.98215699236901</v>
+        <v>157.8594836382962</v>
       </c>
       <c r="K27" t="n">
-        <v>346.6851241207641</v>
+        <v>434.5624507666913</v>
       </c>
       <c r="L27" t="n">
-        <v>775.9898870516712</v>
+        <v>863.8672136975983</v>
       </c>
       <c r="M27" t="n">
-        <v>1335.104811292953</v>
+        <v>1422.982137938881</v>
       </c>
       <c r="N27" t="n">
-        <v>1535.108840640795</v>
+        <v>1730.202091242672</v>
       </c>
       <c r="O27" t="n">
-        <v>1996.872630224454</v>
+        <v>2191.965880826331</v>
       </c>
       <c r="P27" t="n">
-        <v>2354.799662993119</v>
+        <v>2549.892913594995</v>
       </c>
       <c r="Q27" t="n">
         <v>2549.892913594995</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>436.8115547448186</v>
+        <v>436.8115547448185</v>
       </c>
       <c r="C28" t="n">
-        <v>370.4597053130844</v>
+        <v>370.4597053130843</v>
       </c>
       <c r="D28" t="n">
-        <v>320.6519322474327</v>
+        <v>320.6519322474326</v>
       </c>
       <c r="E28" t="n">
-        <v>271.9070381153371</v>
+        <v>271.907038115337</v>
       </c>
       <c r="F28" t="n">
-        <v>222.6905032476998</v>
+        <v>222.6905032476997</v>
       </c>
       <c r="G28" t="n">
-        <v>157.2849703736963</v>
+        <v>157.2849703736962</v>
       </c>
       <c r="H28" t="n">
-        <v>103.400022961616</v>
+        <v>103.4000229616159</v>
       </c>
       <c r="I28" t="n">
-        <v>69.98215699236901</v>
+        <v>69.982156992369</v>
       </c>
       <c r="J28" t="n">
-        <v>129.6591170611762</v>
+        <v>129.6591170611761</v>
       </c>
       <c r="K28" t="n">
-        <v>292.9508107464048</v>
+        <v>292.9508107464047</v>
       </c>
       <c r="L28" t="n">
         <v>531.2095270480795</v>
       </c>
       <c r="M28" t="n">
-        <v>788.8356752321544</v>
+        <v>788.8356752321546</v>
       </c>
       <c r="N28" t="n">
         <v>1045.977034613511</v>
@@ -6412,22 +6412,22 @@
         <v>1416.984372122637</v>
       </c>
       <c r="T28" t="n">
-        <v>1288.138129556117</v>
+        <v>1288.138129556116</v>
       </c>
       <c r="U28" t="n">
         <v>1104.225651732796</v>
       </c>
       <c r="V28" t="n">
-        <v>946.7544673978043</v>
+        <v>946.7544673978041</v>
       </c>
       <c r="W28" t="n">
-        <v>763.8621860217891</v>
+        <v>763.8621860217888</v>
       </c>
       <c r="X28" t="n">
-        <v>635.8738420237504</v>
+        <v>635.8738420237502</v>
       </c>
       <c r="Y28" t="n">
-        <v>517.1028033226129</v>
+        <v>517.1028033226128</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1804.80813604549</v>
+        <v>1804.808136045491</v>
       </c>
       <c r="C29" t="n">
-        <v>1526.138497484883</v>
+        <v>1526.138497484884</v>
       </c>
       <c r="D29" t="n">
-        <v>1256.578652818692</v>
+        <v>1256.578652818693</v>
       </c>
       <c r="E29" t="n">
         <v>965.0570530313848</v>
       </c>
       <c r="F29" t="n">
-        <v>654.1699824481407</v>
+        <v>654.1699824481404</v>
       </c>
       <c r="G29" t="n">
-        <v>341.8876613627825</v>
+        <v>341.8876613627823</v>
       </c>
       <c r="H29" t="n">
         <v>118.0404684219804</v>
@@ -6464,25 +6464,25 @@
         <v>289.5691431564578</v>
       </c>
       <c r="K29" t="n">
-        <v>689.9601672638761</v>
+        <v>700.4291941146663</v>
       </c>
       <c r="L29" t="n">
-        <v>1124.079480494624</v>
+        <v>1235.757671461878</v>
       </c>
       <c r="M29" t="n">
-        <v>1714.479684777814</v>
+        <v>1826.157875745069</v>
       </c>
       <c r="N29" t="n">
-        <v>2291.524683130151</v>
+        <v>2403.202874097405</v>
       </c>
       <c r="O29" t="n">
-        <v>2789.809143078167</v>
+        <v>2901.487334045421</v>
       </c>
       <c r="P29" t="n">
-        <v>3197.755425664159</v>
+        <v>3309.433616631414</v>
       </c>
       <c r="Q29" t="n">
-        <v>3452.407317645637</v>
+        <v>3462.876344496427</v>
       </c>
       <c r="R29" t="n">
         <v>3499.107849618451</v>
@@ -6497,13 +6497,13 @@
         <v>3157.617275179708</v>
       </c>
       <c r="V29" t="n">
-        <v>2923.902121182235</v>
+        <v>2923.902121182236</v>
       </c>
       <c r="W29" t="n">
-        <v>2664.631311146421</v>
+        <v>2664.631311146422</v>
       </c>
       <c r="X29" t="n">
-        <v>2385.8652907745</v>
+        <v>2385.865290774501</v>
       </c>
       <c r="Y29" t="n">
         <v>2095.587555456924</v>
@@ -6549,7 +6549,7 @@
         <v>863.8672136975983</v>
       </c>
       <c r="M30" t="n">
-        <v>1422.98213793888</v>
+        <v>1422.982137938881</v>
       </c>
       <c r="N30" t="n">
         <v>1535.108840640795</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>436.8115547448187</v>
+        <v>436.8115547448184</v>
       </c>
       <c r="C31" t="n">
-        <v>370.4597053130846</v>
+        <v>370.4597053130842</v>
       </c>
       <c r="D31" t="n">
-        <v>320.6519322474328</v>
+        <v>320.6519322474325</v>
       </c>
       <c r="E31" t="n">
-        <v>271.9070381153372</v>
+        <v>271.9070381153369</v>
       </c>
       <c r="F31" t="n">
-        <v>222.6905032476998</v>
+        <v>222.6905032476995</v>
       </c>
       <c r="G31" t="n">
-        <v>157.2849703736963</v>
+        <v>157.2849703736961</v>
       </c>
       <c r="H31" t="n">
         <v>103.400022961616</v>
@@ -6619,19 +6619,19 @@
         <v>69.98215699236901</v>
       </c>
       <c r="J31" t="n">
-        <v>129.6591170611762</v>
+        <v>129.6591170611761</v>
       </c>
       <c r="K31" t="n">
-        <v>292.9508107464048</v>
+        <v>292.9508107464047</v>
       </c>
       <c r="L31" t="n">
-        <v>531.2095270480793</v>
+        <v>531.2095270480792</v>
       </c>
       <c r="M31" t="n">
-        <v>788.8356752321544</v>
+        <v>788.8356752321542</v>
       </c>
       <c r="N31" t="n">
-        <v>1045.97703461351</v>
+        <v>1045.977034613511</v>
       </c>
       <c r="O31" t="n">
         <v>1280.296266092756</v>
@@ -6655,16 +6655,16 @@
         <v>1104.225651732796</v>
       </c>
       <c r="V31" t="n">
-        <v>946.7544673978042</v>
+        <v>946.7544673978041</v>
       </c>
       <c r="W31" t="n">
-        <v>763.8621860217888</v>
+        <v>763.8621860217887</v>
       </c>
       <c r="X31" t="n">
         <v>635.8738420237501</v>
       </c>
       <c r="Y31" t="n">
-        <v>517.102803322613</v>
+        <v>517.1028033226127</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1804.808136045491</v>
+        <v>1804.80813604549</v>
       </c>
       <c r="C32" t="n">
-        <v>1526.138497484884</v>
+        <v>1526.138497484883</v>
       </c>
       <c r="D32" t="n">
-        <v>1256.578652818693</v>
+        <v>1256.578652818692</v>
       </c>
       <c r="E32" t="n">
-        <v>965.0570530313857</v>
+        <v>965.0570530313844</v>
       </c>
       <c r="F32" t="n">
-        <v>654.1699824481416</v>
+        <v>654.1699824481404</v>
       </c>
       <c r="G32" t="n">
-        <v>341.8876613627818</v>
+        <v>341.8876613627822</v>
       </c>
       <c r="H32" t="n">
-        <v>118.0404684219803</v>
+        <v>118.0404684219804</v>
       </c>
       <c r="I32" t="n">
-        <v>69.98215699236901</v>
+        <v>69.98215699236903</v>
       </c>
       <c r="J32" t="n">
-        <v>289.5691431564579</v>
+        <v>289.5691431564578</v>
       </c>
       <c r="K32" t="n">
-        <v>700.4291941146664</v>
+        <v>700.4291941146663</v>
       </c>
       <c r="L32" t="n">
-        <v>1235.757671461879</v>
+        <v>1134.548507345414</v>
       </c>
       <c r="M32" t="n">
-        <v>1826.157875745069</v>
+        <v>1714.479684777815</v>
       </c>
       <c r="N32" t="n">
-        <v>2403.202874097406</v>
+        <v>2291.524683130151</v>
       </c>
       <c r="O32" t="n">
-        <v>2901.487334045422</v>
+        <v>2789.809143078167</v>
       </c>
       <c r="P32" t="n">
-        <v>3208.22445251495</v>
+        <v>3197.75542566416</v>
       </c>
       <c r="Q32" t="n">
         <v>3452.407317645637</v>
@@ -6725,25 +6725,25 @@
         <v>3499.107849618451</v>
       </c>
       <c r="S32" t="n">
-        <v>3427.848059106664</v>
+        <v>3427.848059106665</v>
       </c>
       <c r="T32" t="n">
-        <v>3309.193887730819</v>
+        <v>3309.19388773082</v>
       </c>
       <c r="U32" t="n">
         <v>3157.617275179708</v>
       </c>
       <c r="V32" t="n">
-        <v>2923.902121182236</v>
+        <v>2923.902121182235</v>
       </c>
       <c r="W32" t="n">
-        <v>2664.631311146422</v>
+        <v>2664.631311146421</v>
       </c>
       <c r="X32" t="n">
-        <v>2385.865290774501</v>
+        <v>2385.8652907745</v>
       </c>
       <c r="Y32" t="n">
-        <v>2095.587555456925</v>
+        <v>2095.587555456924</v>
       </c>
     </row>
     <row r="33">
@@ -6774,10 +6774,10 @@
         <v>128.0935758571978</v>
       </c>
       <c r="I33" t="n">
-        <v>69.98215699236901</v>
+        <v>69.98215699236903</v>
       </c>
       <c r="J33" t="n">
-        <v>157.8594836382962</v>
+        <v>157.8594836382963</v>
       </c>
       <c r="K33" t="n">
         <v>434.5624507666913</v>
@@ -6786,7 +6786,7 @@
         <v>863.8672136975983</v>
       </c>
       <c r="M33" t="n">
-        <v>1422.98213793888</v>
+        <v>947.8009050459599</v>
       </c>
       <c r="N33" t="n">
         <v>1535.108840640795</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>436.811554744818</v>
+        <v>436.8115547448187</v>
       </c>
       <c r="C34" t="n">
-        <v>370.4597053130839</v>
+        <v>370.4597053130846</v>
       </c>
       <c r="D34" t="n">
-        <v>320.6519322474322</v>
+        <v>320.6519322474328</v>
       </c>
       <c r="E34" t="n">
-        <v>271.9070381153367</v>
+        <v>271.9070381153372</v>
       </c>
       <c r="F34" t="n">
-        <v>222.6905032476994</v>
+        <v>222.6905032476998</v>
       </c>
       <c r="G34" t="n">
-        <v>157.284970373696</v>
+        <v>157.2849703736963</v>
       </c>
       <c r="H34" t="n">
-        <v>103.4000229616159</v>
+        <v>103.400022961616</v>
       </c>
       <c r="I34" t="n">
-        <v>69.98215699236901</v>
+        <v>69.98215699236903</v>
       </c>
       <c r="J34" t="n">
         <v>129.6591170611762</v>
       </c>
       <c r="K34" t="n">
-        <v>292.9508107464031</v>
+        <v>292.9508107464051</v>
       </c>
       <c r="L34" t="n">
-        <v>531.2095270480779</v>
+        <v>531.2095270480797</v>
       </c>
       <c r="M34" t="n">
-        <v>788.8356752321531</v>
+        <v>788.8356752321547</v>
       </c>
       <c r="N34" t="n">
-        <v>1045.977034613509</v>
+        <v>1045.977034613511</v>
       </c>
       <c r="O34" t="n">
-        <v>1280.296266092755</v>
+        <v>1280.296266092757</v>
       </c>
       <c r="P34" t="n">
-        <v>1474.119912343312</v>
+        <v>1474.119912343314</v>
       </c>
       <c r="Q34" t="n">
-        <v>1558.083980830825</v>
+        <v>1558.083980830826</v>
       </c>
       <c r="R34" t="n">
-        <v>1523.071529484704</v>
+        <v>1523.071529484706</v>
       </c>
       <c r="S34" t="n">
-        <v>1416.984372122636</v>
+        <v>1416.984372122637</v>
       </c>
       <c r="T34" t="n">
-        <v>1288.138129556115</v>
+        <v>1288.138129556117</v>
       </c>
       <c r="U34" t="n">
-        <v>1104.225651732795</v>
+        <v>1104.225651732796</v>
       </c>
       <c r="V34" t="n">
-        <v>946.7544673978034</v>
+        <v>946.7544673978045</v>
       </c>
       <c r="W34" t="n">
-        <v>763.8621860217881</v>
+        <v>763.8621860217892</v>
       </c>
       <c r="X34" t="n">
-        <v>635.8738420237495</v>
+        <v>635.8738420237505</v>
       </c>
       <c r="Y34" t="n">
-        <v>517.1028033226122</v>
+        <v>517.1028033226131</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1442.993093052649</v>
+        <v>1442.99309305265</v>
       </c>
       <c r="C35" t="n">
-        <v>1214.083264671161</v>
+        <v>1214.083264671162</v>
       </c>
       <c r="D35" t="n">
-        <v>994.2832301840892</v>
+        <v>994.2832301840899</v>
       </c>
       <c r="E35" t="n">
-        <v>752.5214405759007</v>
+        <v>752.5214405759011</v>
       </c>
       <c r="F35" t="n">
-        <v>491.3941801717756</v>
+        <v>491.3941801717758</v>
       </c>
       <c r="G35" t="n">
         <v>228.871669265536</v>
       </c>
       <c r="H35" t="n">
-        <v>54.7842865038532</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="I35" t="n">
-        <v>54.7842865038532</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="J35" t="n">
-        <v>173.1621085514776</v>
+        <v>173.162108551478</v>
       </c>
       <c r="K35" t="n">
-        <v>482.8129953932214</v>
+        <v>482.8129953932221</v>
       </c>
       <c r="L35" t="n">
-        <v>916.9323086239689</v>
+        <v>916.9323086239698</v>
       </c>
       <c r="M35" t="n">
-        <v>1406.123348790695</v>
+        <v>1406.123348790696</v>
       </c>
       <c r="N35" t="n">
-        <v>1881.959183026567</v>
+        <v>1881.959183026568</v>
       </c>
       <c r="O35" t="n">
         <v>2279.034478858119</v>
@@ -6971,16 +6971,16 @@
         <v>2547.003181291274</v>
       </c>
       <c r="V35" t="n">
-        <v>2363.047837472919</v>
+        <v>2363.04783747292</v>
       </c>
       <c r="W35" t="n">
-        <v>2153.536837616224</v>
+        <v>2153.536837616225</v>
       </c>
       <c r="X35" t="n">
-        <v>1924.530627423422</v>
+        <v>1924.530627423423</v>
       </c>
       <c r="Y35" t="n">
-        <v>1684.012702284964</v>
+        <v>1684.012702284965</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>112.895705368682</v>
       </c>
       <c r="I36" t="n">
-        <v>54.7842865038532</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="J36" t="n">
-        <v>142.6616131497804</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="K36" t="n">
-        <v>419.3645802781755</v>
+        <v>331.4872536322482</v>
       </c>
       <c r="L36" t="n">
-        <v>848.6693432090826</v>
+        <v>760.7920165631554</v>
       </c>
       <c r="M36" t="n">
-        <v>1407.784267450365</v>
+        <v>1319.906940804438</v>
       </c>
       <c r="N36" t="n">
-        <v>1519.910970152279</v>
+        <v>1907.214876399273</v>
       </c>
       <c r="O36" t="n">
         <v>1981.674759735938</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.19514857084738</v>
+        <v>91.19514857084749</v>
       </c>
       <c r="C37" t="n">
-        <v>74.60310931823203</v>
+        <v>74.60310931823213</v>
       </c>
       <c r="D37" t="n">
-        <v>74.55514643169911</v>
+        <v>74.55514643169919</v>
       </c>
       <c r="E37" t="n">
-        <v>74.55514643169911</v>
+        <v>74.55514643169919</v>
       </c>
       <c r="F37" t="n">
-        <v>74.55514643169911</v>
+        <v>74.55514643169919</v>
       </c>
       <c r="G37" t="n">
-        <v>58.90942373681449</v>
+        <v>58.90942373681452</v>
       </c>
       <c r="H37" t="n">
-        <v>54.7842865038532</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="I37" t="n">
-        <v>54.7842865038532</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="J37" t="n">
-        <v>54.7842865038532</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="K37" t="n">
-        <v>116.8668160726173</v>
+        <v>116.8668160726174</v>
       </c>
       <c r="L37" t="n">
-        <v>253.9163682578275</v>
+        <v>253.9163682578276</v>
       </c>
       <c r="M37" t="n">
         <v>410.3333523254382</v>
       </c>
       <c r="N37" t="n">
-        <v>566.2655475903299</v>
+        <v>566.26554759033</v>
       </c>
       <c r="O37" t="n">
-        <v>699.375614953111</v>
+        <v>699.3756149531112</v>
       </c>
       <c r="P37" t="n">
-        <v>791.9900970872036</v>
+        <v>791.9900970872037</v>
       </c>
       <c r="Q37" t="n">
-        <v>791.9900970872036</v>
+        <v>791.9900970872037</v>
       </c>
       <c r="R37" t="n">
-        <v>791.9900970872036</v>
+        <v>791.9900970872037</v>
       </c>
       <c r="S37" t="n">
-        <v>735.662749904254</v>
+        <v>735.6627499042542</v>
       </c>
       <c r="T37" t="n">
         <v>656.5763175168524</v>
       </c>
       <c r="U37" t="n">
-        <v>509.8101946632308</v>
+        <v>522.4236498726509</v>
       </c>
       <c r="V37" t="n">
-        <v>402.0988205073578</v>
+        <v>414.7122757167779</v>
       </c>
       <c r="W37" t="n">
-        <v>268.9663493104613</v>
+        <v>281.5798045198813</v>
       </c>
       <c r="X37" t="n">
-        <v>190.7378154915414</v>
+        <v>203.3512707009614</v>
       </c>
       <c r="Y37" t="n">
-        <v>121.7265869695228</v>
+        <v>134.3400421789428</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1442.993093052649</v>
+        <v>1442.99309305265</v>
       </c>
       <c r="C38" t="n">
-        <v>1214.083264671161</v>
+        <v>1214.083264671162</v>
       </c>
       <c r="D38" t="n">
-        <v>994.2832301840892</v>
+        <v>994.2832301840897</v>
       </c>
       <c r="E38" t="n">
-        <v>752.5214405759007</v>
+        <v>752.5214405759009</v>
       </c>
       <c r="F38" t="n">
         <v>491.3941801717756</v>
@@ -7166,19 +7166,19 @@
         <v>228.871669265536</v>
       </c>
       <c r="H38" t="n">
-        <v>54.7842865038532</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="I38" t="n">
-        <v>54.7842865038532</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="J38" t="n">
-        <v>173.1621085514775</v>
+        <v>173.1621085514778</v>
       </c>
       <c r="K38" t="n">
-        <v>482.8129953932215</v>
+        <v>482.8129953932218</v>
       </c>
       <c r="L38" t="n">
-        <v>916.932308623969</v>
+        <v>916.9323086239693</v>
       </c>
       <c r="M38" t="n">
         <v>1406.123348790695</v>
@@ -7208,16 +7208,16 @@
         <v>2547.003181291274</v>
       </c>
       <c r="V38" t="n">
-        <v>2363.047837472919</v>
+        <v>2363.04783747292</v>
       </c>
       <c r="W38" t="n">
-        <v>2153.536837616224</v>
+        <v>2153.536837616225</v>
       </c>
       <c r="X38" t="n">
-        <v>1924.530627423422</v>
+        <v>1924.530627423423</v>
       </c>
       <c r="Y38" t="n">
-        <v>1684.012702284964</v>
+        <v>1684.012702284965</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>112.895705368682</v>
       </c>
       <c r="I39" t="n">
-        <v>54.7842865038532</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="J39" t="n">
-        <v>142.6616131497804</v>
+        <v>142.6616131497805</v>
       </c>
       <c r="K39" t="n">
-        <v>419.3645802781755</v>
+        <v>142.6616131497805</v>
       </c>
       <c r="L39" t="n">
-        <v>848.6693432090826</v>
+        <v>571.9663760806875</v>
       </c>
       <c r="M39" t="n">
-        <v>1407.784267450365</v>
+        <v>1131.08130032197</v>
       </c>
       <c r="N39" t="n">
-        <v>1519.910970152279</v>
+        <v>1718.389235916805</v>
       </c>
       <c r="O39" t="n">
-        <v>1981.674759735938</v>
+        <v>2180.153025500465</v>
       </c>
       <c r="P39" t="n">
         <v>2339.601792504603</v>
@@ -7306,58 +7306,58 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>103.8086037802675</v>
+        <v>103.8086037802673</v>
       </c>
       <c r="C40" t="n">
-        <v>87.21656452765214</v>
+        <v>87.21656452765197</v>
       </c>
       <c r="D40" t="n">
-        <v>87.16860164111922</v>
+        <v>87.16860164111903</v>
       </c>
       <c r="E40" t="n">
-        <v>87.16860164111922</v>
+        <v>87.16860164111903</v>
       </c>
       <c r="F40" t="n">
-        <v>74.55514643169911</v>
+        <v>87.16860164111903</v>
       </c>
       <c r="G40" t="n">
-        <v>58.90942373681449</v>
+        <v>71.52287894623437</v>
       </c>
       <c r="H40" t="n">
-        <v>54.7842865038532</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="I40" t="n">
-        <v>54.7842865038532</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="J40" t="n">
-        <v>54.7842865038532</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="K40" t="n">
-        <v>116.8668160726173</v>
+        <v>116.8668160726174</v>
       </c>
       <c r="L40" t="n">
-        <v>253.9163682578275</v>
+        <v>253.9163682578276</v>
       </c>
       <c r="M40" t="n">
         <v>410.3333523254382</v>
       </c>
       <c r="N40" t="n">
-        <v>566.2655475903299</v>
+        <v>566.26554759033</v>
       </c>
       <c r="O40" t="n">
-        <v>699.375614953111</v>
+        <v>699.3756149531112</v>
       </c>
       <c r="P40" t="n">
-        <v>791.9900970872036</v>
+        <v>791.9900970872037</v>
       </c>
       <c r="Q40" t="n">
-        <v>791.9900970872036</v>
+        <v>791.9900970872037</v>
       </c>
       <c r="R40" t="n">
-        <v>791.9900970872036</v>
+        <v>791.9900970872037</v>
       </c>
       <c r="S40" t="n">
-        <v>735.662749904254</v>
+        <v>735.6627499042542</v>
       </c>
       <c r="T40" t="n">
         <v>656.5763175168524</v>
@@ -7372,10 +7372,10 @@
         <v>281.5798045198813</v>
       </c>
       <c r="X40" t="n">
-        <v>203.3512707009615</v>
+        <v>203.3512707009614</v>
       </c>
       <c r="Y40" t="n">
-        <v>134.340042178943</v>
+        <v>134.3400421789428</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>752.5214405759004</v>
       </c>
       <c r="F41" t="n">
-        <v>491.3941801717752</v>
+        <v>491.3941801717751</v>
       </c>
       <c r="G41" t="n">
-        <v>228.8716692655359</v>
+        <v>228.871669265536</v>
       </c>
       <c r="H41" t="n">
-        <v>54.7842865038532</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="I41" t="n">
-        <v>54.7842865038532</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="J41" t="n">
         <v>173.1621085514778</v>
       </c>
       <c r="K41" t="n">
-        <v>482.8129953932219</v>
+        <v>482.8129953932218</v>
       </c>
       <c r="L41" t="n">
         <v>916.9323086239693</v>
@@ -7436,10 +7436,10 @@
         <v>2739.21432519266</v>
       </c>
       <c r="S41" t="n">
-        <v>2717.714344859991</v>
+        <v>2717.714344859993</v>
       </c>
       <c r="T41" t="n">
-        <v>2648.819983663265</v>
+        <v>2648.819983663267</v>
       </c>
       <c r="U41" t="n">
         <v>2547.003181291273</v>
@@ -7485,10 +7485,10 @@
         <v>112.895705368682</v>
       </c>
       <c r="I42" t="n">
-        <v>54.7842865038532</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="J42" t="n">
-        <v>142.6616131497804</v>
+        <v>142.6616131497805</v>
       </c>
       <c r="K42" t="n">
         <v>419.3645802781755</v>
@@ -7497,7 +7497,7 @@
         <v>848.6693432090826</v>
       </c>
       <c r="M42" t="n">
-        <v>1407.784267450365</v>
+        <v>932.6030345574439</v>
       </c>
       <c r="N42" t="n">
         <v>1519.910970152279</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.19514857084715</v>
+        <v>103.8086037802677</v>
       </c>
       <c r="C43" t="n">
-        <v>74.60310931823186</v>
+        <v>87.21656452765242</v>
       </c>
       <c r="D43" t="n">
-        <v>74.555146431699</v>
+        <v>87.16860164111954</v>
       </c>
       <c r="E43" t="n">
-        <v>74.555146431699</v>
+        <v>87.16860164111954</v>
       </c>
       <c r="F43" t="n">
-        <v>74.555146431699</v>
+        <v>87.16860164111954</v>
       </c>
       <c r="G43" t="n">
-        <v>58.90942373681443</v>
+        <v>71.52287894623494</v>
       </c>
       <c r="H43" t="n">
-        <v>54.7842865038532</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="I43" t="n">
-        <v>54.7842865038532</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="J43" t="n">
-        <v>54.7842865038532</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="K43" t="n">
-        <v>116.8668160726173</v>
+        <v>116.8668160726174</v>
       </c>
       <c r="L43" t="n">
-        <v>253.9163682578275</v>
+        <v>253.9163682578276</v>
       </c>
       <c r="M43" t="n">
         <v>410.3333523254382</v>
       </c>
       <c r="N43" t="n">
-        <v>566.2655475903299</v>
+        <v>566.26554759033</v>
       </c>
       <c r="O43" t="n">
-        <v>699.375614953111</v>
+        <v>699.3756149531112</v>
       </c>
       <c r="P43" t="n">
-        <v>791.9900970872036</v>
+        <v>791.9900970872037</v>
       </c>
       <c r="Q43" t="n">
-        <v>791.9900970872036</v>
+        <v>791.9900970872037</v>
       </c>
       <c r="R43" t="n">
-        <v>791.9900970872036</v>
+        <v>791.9900970872037</v>
       </c>
       <c r="S43" t="n">
-        <v>735.662749904254</v>
+        <v>735.6627499042542</v>
       </c>
       <c r="T43" t="n">
-        <v>656.5763175168524</v>
+        <v>656.5763175168526</v>
       </c>
       <c r="U43" t="n">
-        <v>522.4236498726509</v>
+        <v>522.423649872651</v>
       </c>
       <c r="V43" t="n">
-        <v>414.7122757167779</v>
+        <v>414.712275716778</v>
       </c>
       <c r="W43" t="n">
-        <v>281.5798045198815</v>
+        <v>281.5798045198816</v>
       </c>
       <c r="X43" t="n">
         <v>203.3512707009617</v>
       </c>
       <c r="Y43" t="n">
-        <v>121.7265869695226</v>
+        <v>134.3400421789432</v>
       </c>
     </row>
     <row r="44">
@@ -7625,73 +7625,73 @@
         <v>1442.993093052649</v>
       </c>
       <c r="C44" t="n">
-        <v>1214.08326467116</v>
+        <v>1214.083264671161</v>
       </c>
       <c r="D44" t="n">
-        <v>994.2832301840886</v>
+        <v>994.283230184089</v>
       </c>
       <c r="E44" t="n">
-        <v>752.5214405759002</v>
+        <v>752.5214405759004</v>
       </c>
       <c r="F44" t="n">
-        <v>491.3941801717756</v>
+        <v>491.3941801717758</v>
       </c>
       <c r="G44" t="n">
-        <v>228.8716692655359</v>
+        <v>228.871669265536</v>
       </c>
       <c r="H44" t="n">
-        <v>54.78428650385318</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="I44" t="n">
-        <v>54.78428650385318</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="J44" t="n">
-        <v>173.1621085514775</v>
+        <v>173.1621085514776</v>
       </c>
       <c r="K44" t="n">
-        <v>482.8129953932215</v>
+        <v>482.8129953932217</v>
       </c>
       <c r="L44" t="n">
-        <v>916.932308623969</v>
+        <v>916.9323086239692</v>
       </c>
       <c r="M44" t="n">
-        <v>1406.123348790694</v>
+        <v>1406.123348790695</v>
       </c>
       <c r="N44" t="n">
-        <v>1881.959183026566</v>
+        <v>1881.959183026567</v>
       </c>
       <c r="O44" t="n">
-        <v>2279.034478858118</v>
+        <v>2279.034478858119</v>
       </c>
       <c r="P44" t="n">
-        <v>2585.771597327646</v>
+        <v>2585.771597327647</v>
       </c>
       <c r="Q44" t="n">
-        <v>2739.214325192659</v>
+        <v>2739.21432519266</v>
       </c>
       <c r="R44" t="n">
-        <v>2739.214325192659</v>
+        <v>2739.21432519266</v>
       </c>
       <c r="S44" t="n">
-        <v>2717.714344859991</v>
+        <v>2717.714344859992</v>
       </c>
       <c r="T44" t="n">
-        <v>2648.819983663265</v>
+        <v>2648.819983663266</v>
       </c>
       <c r="U44" t="n">
-        <v>2547.003181291273</v>
+        <v>2547.003181291274</v>
       </c>
       <c r="V44" t="n">
-        <v>2363.047837472918</v>
+        <v>2363.047837472919</v>
       </c>
       <c r="W44" t="n">
-        <v>2153.536837616223</v>
+        <v>2153.536837616224</v>
       </c>
       <c r="X44" t="n">
-        <v>1924.530627423421</v>
+        <v>1924.530627423422</v>
       </c>
       <c r="Y44" t="n">
-        <v>1684.012702284963</v>
+        <v>1684.012702284964</v>
       </c>
     </row>
     <row r="45">
@@ -7722,19 +7722,19 @@
         <v>112.895705368682</v>
       </c>
       <c r="I45" t="n">
-        <v>54.78428650385318</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="J45" t="n">
-        <v>54.78428650385318</v>
+        <v>142.6616131497805</v>
       </c>
       <c r="K45" t="n">
-        <v>331.4872536322482</v>
+        <v>419.3645802781755</v>
       </c>
       <c r="L45" t="n">
-        <v>760.7920165631554</v>
+        <v>848.6693432090826</v>
       </c>
       <c r="M45" t="n">
-        <v>1319.906940804437</v>
+        <v>932.6030345574439</v>
       </c>
       <c r="N45" t="n">
         <v>1519.910970152279</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>103.8086037802678</v>
+        <v>91.19514857084749</v>
       </c>
       <c r="C46" t="n">
-        <v>87.21656452765248</v>
+        <v>74.60310931823213</v>
       </c>
       <c r="D46" t="n">
-        <v>87.16860164111962</v>
+        <v>74.55514643169919</v>
       </c>
       <c r="E46" t="n">
-        <v>87.16860164111962</v>
+        <v>74.55514643169919</v>
       </c>
       <c r="F46" t="n">
-        <v>87.16860164111962</v>
+        <v>74.55514643169919</v>
       </c>
       <c r="G46" t="n">
-        <v>71.52287894623505</v>
+        <v>58.90942373681452</v>
       </c>
       <c r="H46" t="n">
-        <v>54.78428650385318</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="I46" t="n">
-        <v>54.78428650385318</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="J46" t="n">
-        <v>54.78428650385318</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="K46" t="n">
-        <v>116.8668160726173</v>
+        <v>116.8668160726174</v>
       </c>
       <c r="L46" t="n">
-        <v>253.9163682578275</v>
+        <v>253.9163682578276</v>
       </c>
       <c r="M46" t="n">
-        <v>410.3333523254381</v>
+        <v>410.3333523254382</v>
       </c>
       <c r="N46" t="n">
-        <v>566.2655475903299</v>
+        <v>566.26554759033</v>
       </c>
       <c r="O46" t="n">
-        <v>699.375614953111</v>
+        <v>699.3756149531112</v>
       </c>
       <c r="P46" t="n">
-        <v>791.9900970872036</v>
+        <v>791.9900970872037</v>
       </c>
       <c r="Q46" t="n">
-        <v>791.9900970872036</v>
+        <v>791.9900970872037</v>
       </c>
       <c r="R46" t="n">
-        <v>791.9900970872036</v>
+        <v>791.9900970872037</v>
       </c>
       <c r="S46" t="n">
-        <v>735.662749904254</v>
+        <v>735.6627499042542</v>
       </c>
       <c r="T46" t="n">
         <v>656.5763175168524</v>
       </c>
       <c r="U46" t="n">
-        <v>522.4236498726509</v>
+        <v>509.8101946632311</v>
       </c>
       <c r="V46" t="n">
-        <v>414.7122757167779</v>
+        <v>402.098820507358</v>
       </c>
       <c r="W46" t="n">
-        <v>281.5798045198815</v>
+        <v>268.9663493104615</v>
       </c>
       <c r="X46" t="n">
-        <v>203.3512707009617</v>
+        <v>190.7378154915416</v>
       </c>
       <c r="Y46" t="n">
-        <v>134.3400421789432</v>
+        <v>121.726586969523</v>
       </c>
     </row>
   </sheetData>
@@ -8687,16 +8687,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>100.2520420998329</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
-        <v>108.6103627649949</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>417.8278146048796</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>584.3675935406823</v>
+        <v>181.7264168210347</v>
       </c>
       <c r="N11" t="n">
         <v>568.5510017355793</v>
@@ -8705,10 +8705,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3383206229274</v>
+        <v>108.5028474213841</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0168334487717</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,19 +8766,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>75.15336953250397</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>64.30686152201373</v>
       </c>
       <c r="L12" t="n">
-        <v>149.355901447279</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>545.5209094799091</v>
+        <v>545.5209094799095</v>
       </c>
       <c r="N12" t="n">
-        <v>29.90474766193724</v>
+        <v>262.495012715932</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>76.03658455975847</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>100.2520420998329</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>421.3890363425141</v>
+        <v>117.3489104259937</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
@@ -8942,10 +8942,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
-        <v>388.8644067393765</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.0168334487717</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>75.15336953250394</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9015,16 +9015,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>45.70905082430347</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>122.3944293164727</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>76.03658455975844</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9164,7 +9164,7 @@
         <v>100.2520420998329</v>
       </c>
       <c r="K17" t="n">
-        <v>421.3890363425141</v>
+        <v>236.9224680498573</v>
       </c>
       <c r="L17" t="n">
         <v>542.9595789155856</v>
@@ -9179,10 +9179,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>388.8644067393765</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>121.0168334487717</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9243,7 +9243,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163522</v>
+        <v>324.9751191329647</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9252,16 +9252,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>45.70905082430347</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>414.0015992319183</v>
+        <v>52.45914188983312</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>76.0365845597585</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9407,7 +9407,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>584.3675935406823</v>
+        <v>399.9010252480255</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
@@ -9416,10 +9416,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
-        <v>388.8644067393765</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0168334487717</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9486,13 +9486,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>494.4086173392065</v>
       </c>
       <c r="N21" t="n">
-        <v>45.70905082430347</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
-        <v>512.0210150597484</v>
+        <v>45.59294477322408</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.8255997236959</v>
+        <v>100.2520420998329</v>
       </c>
       <c r="K23" t="n">
-        <v>421.3890363425141</v>
+        <v>236.9224680498582</v>
       </c>
       <c r="L23" t="n">
         <v>542.9595789155856</v>
@@ -9653,7 +9653,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
-        <v>114.2981947064094</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
         <v>276.0094878578761</v>
@@ -9723,13 +9723,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>605.4165828749999</v>
+        <v>116.7455234627109</v>
       </c>
       <c r="N24" t="n">
-        <v>600.9020975208552</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
-        <v>45.59294477322406</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>75.15336953250397</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>231.9290197304644</v>
+        <v>340.2279328172817</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>76.0365845597585</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>143.1640433204371</v>
+        <v>143.1640433204369</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10434,10 +10434,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>125.4355395488174</v>
       </c>
       <c r="N33" t="n">
-        <v>143.1640433204371</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10662,7 +10662,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>75.15336953250397</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
@@ -10674,10 +10674,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>143.1640433204366</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
-        <v>512.0210150597484</v>
+        <v>120.8049481435929</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
@@ -10829,7 +10829,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>584.3675935406822</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N38" t="n">
         <v>568.5510017355793</v>
@@ -10902,7 +10902,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>64.30686152201375</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10911,13 +10911,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>143.1640433204366</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>414.0015992319183</v>
+        <v>213.5185025000736</v>
       </c>
       <c r="Q39" t="n">
         <v>273.1004740566038</v>
@@ -11145,10 +11145,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>605.4165828749999</v>
+        <v>125.4355395488171</v>
       </c>
       <c r="N42" t="n">
-        <v>143.1640433204366</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11297,13 +11297,13 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>421.3890363425141</v>
+        <v>421.3890363425143</v>
       </c>
       <c r="L44" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>584.3675935406812</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
         <v>568.5510017355793</v>
@@ -11373,7 +11373,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>75.15336953250399</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -11382,10 +11382,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>125.4355395488171</v>
       </c>
       <c r="N45" t="n">
-        <v>231.9290197304644</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>287.8716252173193</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>275.882942175001</v>
       </c>
       <c r="D11" t="n">
         <v>266.864246219529</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>307.7781998774117</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>257.8570459942297</v>
+        <v>115.1337600148338</v>
       </c>
       <c r="H11" t="n">
         <v>221.6087210113936</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>47.5777283153152</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.54719260666904</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>150.0608464255998</v>
       </c>
       <c r="V11" t="n">
-        <v>231.3780024574984</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>-1.122657522500958e-12</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>203.1252047633576</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>266.864246219529</v>
       </c>
       <c r="E14" t="n">
-        <v>288.6063837894345</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>307.7781998774117</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.54719260666903</v>
       </c>
       <c r="T14" t="n">
-        <v>117.4676296620864</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>150.0608464255998</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>102.6738281406721</v>
       </c>
       <c r="X14" t="n">
-        <v>275.9783601682019</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>287.3749579644007</v>
       </c>
     </row>
     <row r="15">
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1143837.818546837</v>
+        <v>1143837.818546838</v>
       </c>
     </row>
     <row r="6">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>172322.2420891435</v>
+        <v>172322.2420891434</v>
       </c>
       <c r="C2" t="n">
         <v>172322.2420891434</v>
       </c>
       <c r="D2" t="n">
-        <v>172322.2420891435</v>
+        <v>172322.2420891434</v>
       </c>
       <c r="E2" t="n">
         <v>147004.7657310279</v>
@@ -26332,7 +26332,7 @@
         <v>172715.4136111912</v>
       </c>
       <c r="I2" t="n">
-        <v>172715.4136111913</v>
+        <v>172715.4136111911</v>
       </c>
       <c r="J2" t="n">
         <v>172715.4136111914</v>
@@ -26341,19 +26341,19 @@
         <v>172715.4136111914</v>
       </c>
       <c r="L2" t="n">
-        <v>172715.4136111913</v>
+        <v>172715.4136111914</v>
       </c>
       <c r="M2" t="n">
-        <v>172715.4136111911</v>
+        <v>172715.4136111912</v>
       </c>
       <c r="N2" t="n">
-        <v>172715.4136111911</v>
+        <v>172715.4136111912</v>
       </c>
       <c r="O2" t="n">
         <v>172715.4136111911</v>
       </c>
       <c r="P2" t="n">
-        <v>172715.4136111911</v>
+        <v>172715.4136111912</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>342836.5759456616</v>
+        <v>342836.5759456618</v>
       </c>
       <c r="F3" t="n">
-        <v>29555.46087811068</v>
+        <v>29555.46087811042</v>
       </c>
       <c r="G3" t="n">
         <v>56437.75408533523</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>95143.32741586959</v>
+        <v>95143.32741586948</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>56437.75408533529</v>
+        <v>56437.7540853352</v>
       </c>
       <c r="M3" t="n">
-        <v>117882.4882489358</v>
+        <v>117882.488248936</v>
       </c>
       <c r="N3" t="n">
-        <v>25264.47989534287</v>
+        <v>25264.47989534267</v>
       </c>
       <c r="O3" t="n">
-        <v>25347.42903908067</v>
+        <v>25347.42903908058</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,10 +26427,10 @@
         <v>265672.9839936035</v>
       </c>
       <c r="F4" t="n">
-        <v>275991.751465878</v>
+        <v>275991.7514658779</v>
       </c>
       <c r="G4" t="n">
-        <v>322791.7341880638</v>
+        <v>322791.7341880637</v>
       </c>
       <c r="H4" t="n">
         <v>322791.7341880637</v>
@@ -26442,16 +26442,16 @@
         <v>319321.5699076308</v>
       </c>
       <c r="K4" t="n">
+        <v>319321.5699076309</v>
+      </c>
+      <c r="L4" t="n">
         <v>319321.5699076308</v>
       </c>
-      <c r="L4" t="n">
-        <v>319321.5699076309</v>
-      </c>
       <c r="M4" t="n">
-        <v>318317.5955738487</v>
+        <v>318317.5955738486</v>
       </c>
       <c r="N4" t="n">
-        <v>318317.5955738487</v>
+        <v>318317.5955738486</v>
       </c>
       <c r="O4" t="n">
         <v>318317.5955738487</v>
@@ -26476,22 +26476,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>42283.59905881004</v>
+        <v>42283.59905881007</v>
       </c>
       <c r="F5" t="n">
-        <v>48555.18356209814</v>
+        <v>48555.18356209813</v>
       </c>
       <c r="G5" t="n">
-        <v>54486.01549734821</v>
+        <v>54486.01549734818</v>
       </c>
       <c r="H5" t="n">
-        <v>54486.0154973482</v>
+        <v>54486.01549734818</v>
       </c>
       <c r="I5" t="n">
-        <v>54486.0154973482</v>
+        <v>54486.01549734819</v>
       </c>
       <c r="J5" t="n">
-        <v>64774.13229132094</v>
+        <v>64774.13229132093</v>
       </c>
       <c r="K5" t="n">
         <v>64774.13229132094</v>
@@ -26509,7 +26509,7 @@
         <v>57365.17562717778</v>
       </c>
       <c r="P5" t="n">
-        <v>57365.17562717777</v>
+        <v>57365.17562717778</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-267450.013335756</v>
+        <v>-267454.3819082231</v>
       </c>
       <c r="C6" t="n">
-        <v>-267450.013335756</v>
+        <v>-267454.3819082231</v>
       </c>
       <c r="D6" t="n">
-        <v>-267450.0133357559</v>
+        <v>-267454.3819082231</v>
       </c>
       <c r="E6" t="n">
-        <v>-503788.3932670472</v>
+        <v>-504074.0671323826</v>
       </c>
       <c r="F6" t="n">
-        <v>-199928.1024832191</v>
+        <v>-200134.1149297557</v>
       </c>
       <c r="G6" t="n">
-        <v>-261000.0901595561</v>
+        <v>-261000.0901595559</v>
       </c>
       <c r="H6" t="n">
         <v>-204562.3360742207</v>
       </c>
       <c r="I6" t="n">
-        <v>-204562.3360742207</v>
+        <v>-204562.3360742208</v>
       </c>
       <c r="J6" t="n">
-        <v>-306523.61600363</v>
+        <v>-306523.6160036298</v>
       </c>
       <c r="K6" t="n">
         <v>-211380.2885877604</v>
       </c>
       <c r="L6" t="n">
-        <v>-267818.0426730958</v>
+        <v>-267818.0426730955</v>
       </c>
       <c r="M6" t="n">
-        <v>-320849.8458387711</v>
+        <v>-320849.8458387713</v>
       </c>
       <c r="N6" t="n">
-        <v>-228231.8374851782</v>
+        <v>-228231.8374851779</v>
       </c>
       <c r="O6" t="n">
         <v>-228314.786628916</v>
       </c>
       <c r="P6" t="n">
-        <v>-202967.3575898354</v>
+        <v>-202967.3575898353</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26701,10 @@
         <v>172.7786715121887</v>
       </c>
       <c r="H2" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="I2" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="J2" t="n">
         <v>102.2314789055197</v>
@@ -26722,10 +26722,10 @@
         <v>151.4936909828473</v>
       </c>
       <c r="O2" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="P2" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
     </row>
     <row r="3">
@@ -26747,7 +26747,7 @@
         <v>137.3025127069889</v>
       </c>
       <c r="F3" t="n">
-        <v>137.3025127069889</v>
+        <v>137.3025127069891</v>
       </c>
       <c r="G3" t="n">
         <v>137.3025127069889</v>
@@ -26762,22 +26762,22 @@
         <v>137.3025127069889</v>
       </c>
       <c r="K3" t="n">
-        <v>137.3025127069888</v>
+        <v>137.3025127069889</v>
       </c>
       <c r="L3" t="n">
-        <v>137.3025127069888</v>
+        <v>137.3025127069889</v>
       </c>
       <c r="M3" t="n">
-        <v>137.3025127069888</v>
+        <v>137.3025127069889</v>
       </c>
       <c r="N3" t="n">
-        <v>137.3025127069888</v>
+        <v>137.3025127069889</v>
       </c>
       <c r="O3" t="n">
-        <v>137.3025127069888</v>
+        <v>137.3025127069889</v>
       </c>
       <c r="P3" t="n">
-        <v>137.3025127069888</v>
+        <v>137.3025127069889</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.8668763435781</v>
+        <v>504.8668763435786</v>
       </c>
       <c r="F4" t="n">
-        <v>608.017937252922</v>
+        <v>608.0179372529216</v>
       </c>
       <c r="G4" t="n">
-        <v>608.017937252922</v>
+        <v>608.0179372529216</v>
       </c>
       <c r="H4" t="n">
-        <v>608.017937252922</v>
+        <v>608.0179372529216</v>
       </c>
       <c r="I4" t="n">
-        <v>608.017937252922</v>
+        <v>608.0179372529218</v>
       </c>
       <c r="J4" t="n">
-        <v>874.7769624046127</v>
+        <v>874.7769624046125</v>
       </c>
       <c r="K4" t="n">
         <v>874.7769624046127</v>
       </c>
       <c r="L4" t="n">
-        <v>874.7769624046127</v>
+        <v>874.7769624046128</v>
       </c>
       <c r="M4" t="n">
-        <v>684.803581298165</v>
+        <v>684.8035812981651</v>
       </c>
       <c r="N4" t="n">
-        <v>684.803581298165</v>
+        <v>684.8035812981651</v>
       </c>
       <c r="O4" t="n">
-        <v>684.803581298165</v>
+        <v>684.8035812981651</v>
       </c>
       <c r="P4" t="n">
-        <v>684.8035812981648</v>
+        <v>684.8035812981651</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>70.54719260666904</v>
+        <v>70.54719260666903</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.68428629885078</v>
+        <v>31.68428629885067</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>70.54719260666911</v>
+        <v>70.547192606669</v>
       </c>
       <c r="M2" t="n">
-        <v>49.26221207732743</v>
+        <v>49.26221207732763</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.68428629885084</v>
+        <v>31.68428629885072</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.8668763435781</v>
+        <v>504.8668763435786</v>
       </c>
       <c r="F4" t="n">
-        <v>103.1510609093439</v>
+        <v>103.151060909343</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>314.8934952371304</v>
+        <v>314.8934952371308</v>
       </c>
       <c r="N4" t="n">
-        <v>103.1510609093439</v>
+        <v>103.1510609093431</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>70.54719260666904</v>
+        <v>70.54719260666903</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.68428629885078</v>
+        <v>31.68428629885067</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.8668763435781</v>
+        <v>504.8668763435786</v>
       </c>
       <c r="N4" t="n">
-        <v>103.1510609093439</v>
+        <v>103.151060909343</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.05922438752572</v>
+        <v>55.05922438752571</v>
       </c>
       <c r="S11" t="n">
         <v>102.2314789055197</v>
@@ -28169,7 +28169,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -28184,10 +28184,10 @@
         <v>102.2314789055197</v>
       </c>
       <c r="H12" t="n">
-        <v>90.74946969370025</v>
+        <v>96.08621347328979</v>
       </c>
       <c r="I12" t="n">
-        <v>57.53030467618052</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>40.85006423600239</v>
+        <v>40.85006423600238</v>
       </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>52.19356089658902</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>102.2314789055197</v>
-      </c>
-      <c r="T12" t="n">
-        <v>102.2314789055197</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.05922438752572</v>
+        <v>55.05922438752567</v>
       </c>
       <c r="S14" t="n">
         <v>102.2314789055197</v>
@@ -28415,13 +28415,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>95.51563814546193</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>95.51563814546016</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28643,7 +28643,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>95.51563814546203</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -28658,10 +28658,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>37.98533346927963</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>57.53030467618052</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28731,10 +28731,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>99.12488653688214</v>
+        <v>166.9829564507831</v>
       </c>
       <c r="H19" t="n">
         <v>155.577576843479</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.41928851409253</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>136.8938057381792</v>
@@ -28782,10 +28782,10 @@
         <v>172.7786715121887</v>
       </c>
       <c r="W19" t="n">
-        <v>172.7786715121887</v>
+        <v>144.1627132000884</v>
       </c>
       <c r="X19" t="n">
-        <v>172.7786715121887</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>172.7786715121887</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="C20" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="D20" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="E20" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="F20" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="G20" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="H20" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="I20" t="n">
         <v>149.8092072208349</v>
@@ -28852,22 +28852,22 @@
         <v>172.7786715121887</v>
       </c>
       <c r="T20" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="U20" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="V20" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="W20" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="X20" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="Y20" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
     </row>
     <row r="21">
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>95.51563814546016</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28934,7 +28934,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>95.51563814546179</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9829564507831</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>155.577576843479</v>
@@ -29007,25 +29007,25 @@
         <v>136.8938057381792</v>
       </c>
       <c r="S22" t="n">
-        <v>144.1627132000891</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="T22" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="V22" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="W22" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="X22" t="n">
-        <v>172.7786715121886</v>
+        <v>138.3669981386828</v>
       </c>
       <c r="Y22" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="C23" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="D23" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="E23" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="F23" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="G23" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="H23" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="I23" t="n">
         <v>149.8092072208349</v>
@@ -29086,25 +29086,25 @@
         <v>55.05922438752572</v>
       </c>
       <c r="S23" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="T23" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="U23" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="V23" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="W23" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="X23" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="Y23" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
     </row>
     <row r="24">
@@ -29129,10 +29129,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>95.51563814546017</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>54.66557390945859</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>40.8500642360024</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29193,13 +29193,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>122.9252159284148</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
@@ -29217,7 +29217,7 @@
         <v>135.3151662150742</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>41.95172126025994</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>136.8938057381792</v>
       </c>
       <c r="S25" t="n">
-        <v>150.2295686863397</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="U25" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="V25" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="W25" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="X25" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="Y25" t="n">
-        <v>172.7786715121886</v>
+        <v>172.7786715121887</v>
       </c>
     </row>
     <row r="26">
@@ -29296,7 +29296,7 @@
         <v>102.2314789055197</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="K26" t="n">
         <v>102.2314789055197</v>
@@ -29305,10 +29305,10 @@
         <v>102.2314789055197</v>
       </c>
       <c r="M26" t="n">
-        <v>102.2314789055197</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>91.65670430876207</v>
+        <v>91.65670430876071</v>
       </c>
       <c r="O26" t="n">
         <v>102.2314789055197</v>
@@ -29536,10 +29536,10 @@
         <v>102.2314789055197</v>
       </c>
       <c r="K29" t="n">
-        <v>91.6567043087619</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="M29" t="n">
         <v>102.2314789055197</v>
@@ -29554,10 +29554,10 @@
         <v>102.2314789055197</v>
       </c>
       <c r="Q29" t="n">
-        <v>102.2314789055197</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>102.2314789055197</v>
+        <v>91.656704308762</v>
       </c>
       <c r="S29" t="n">
         <v>102.2314789055197</v>
@@ -29697,7 +29697,7 @@
         <v>102.2314789055197</v>
       </c>
       <c r="L31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055194</v>
       </c>
       <c r="M31" t="n">
         <v>102.2314789055197</v>
@@ -29776,10 +29776,10 @@
         <v>102.2314789055197</v>
       </c>
       <c r="L32" t="n">
-        <v>102.2314789055197</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>102.2314789055197</v>
+        <v>91.65670430876247</v>
       </c>
       <c r="N32" t="n">
         <v>102.2314789055197</v>
@@ -29788,10 +29788,10 @@
         <v>102.2314789055197</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="Q32" t="n">
-        <v>91.65670430876122</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="R32" t="n">
         <v>102.2314789055197</v>
@@ -29931,7 +29931,7 @@
         <v>102.2314789055197</v>
       </c>
       <c r="K34" t="n">
-        <v>102.231478905518</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="L34" t="n">
         <v>102.2314789055197</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.05922438752573</v>
+        <v>55.05922438752572</v>
       </c>
       <c r="S35" t="n">
         <v>151.4936909828473</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.4936909828473</v>
+        <v>139.0063703255216</v>
       </c>
       <c r="C37" t="n">
         <v>151.4936909828473</v>
@@ -30165,7 +30165,7 @@
         <v>135.3151662150742</v>
       </c>
       <c r="J37" t="n">
-        <v>41.95172126025995</v>
+        <v>41.95172126025994</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30198,7 +30198,7 @@
         <v>151.4936909828473</v>
       </c>
       <c r="U37" t="n">
-        <v>139.0063703255214</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="V37" t="n">
         <v>151.4936909828473</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.05922438752573</v>
+        <v>55.05922438752572</v>
       </c>
       <c r="S38" t="n">
         <v>151.4936909828473</v>
@@ -30390,19 +30390,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>138.4685277671547</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
         <v>151.4936909828473</v>
       </c>
       <c r="H40" t="n">
-        <v>151.4936909828473</v>
+        <v>139.0063703255216</v>
       </c>
       <c r="I40" t="n">
         <v>135.3151662150742</v>
       </c>
       <c r="J40" t="n">
-        <v>41.95172126025995</v>
+        <v>41.95172126025994</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="C41" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="D41" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="E41" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="F41" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="G41" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="H41" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="I41" t="n">
         <v>149.8092072208349</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.05922438752573</v>
+        <v>55.05922438752572</v>
       </c>
       <c r="S41" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="T41" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="U41" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="V41" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="W41" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="X41" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="Y41" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
     </row>
     <row r="42">
@@ -30615,13 +30615,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="C43" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="D43" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
@@ -30630,16 +30630,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="H43" t="n">
-        <v>151.4936909828474</v>
+        <v>139.0063703255211</v>
       </c>
       <c r="I43" t="n">
         <v>135.3151662150742</v>
       </c>
       <c r="J43" t="n">
-        <v>41.95172126025995</v>
+        <v>41.95172126025994</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>136.8938057381792</v>
       </c>
       <c r="S43" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="T43" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="U43" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="V43" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="W43" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="X43" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="Y43" t="n">
-        <v>139.0063703255209</v>
+        <v>151.4936909828473</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="C44" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="D44" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="E44" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="F44" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="G44" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="H44" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="I44" t="n">
         <v>149.8092072208349</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.05922438752573</v>
+        <v>55.05922438752572</v>
       </c>
       <c r="S44" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="T44" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="U44" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="V44" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="W44" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="X44" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="Y44" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
     </row>
     <row r="45">
@@ -30852,13 +30852,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="C46" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="D46" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
@@ -30867,16 +30867,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="H46" t="n">
-        <v>139.0063703255209</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="I46" t="n">
         <v>135.3151662150742</v>
       </c>
       <c r="J46" t="n">
-        <v>41.95172126025995</v>
+        <v>41.95172126025994</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>136.8938057381792</v>
       </c>
       <c r="S46" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="T46" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="U46" t="n">
-        <v>151.4936909828474</v>
+        <v>139.0063703255217</v>
       </c>
       <c r="V46" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="W46" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="X46" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="Y46" t="n">
-        <v>151.4936909828474</v>
+        <v>151.4936909828473</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5519699003296031</v>
+        <v>0.5519699003296032</v>
       </c>
       <c r="H11" t="n">
-        <v>5.65286174175055</v>
+        <v>5.652861741750551</v>
       </c>
       <c r="I11" t="n">
         <v>21.27981958245705</v>
       </c>
       <c r="J11" t="n">
-        <v>46.8477553280997</v>
+        <v>46.84775532809971</v>
       </c>
       <c r="K11" t="n">
-        <v>70.21264120905181</v>
+        <v>70.21264120905182</v>
       </c>
       <c r="L11" t="n">
-        <v>87.10499004626392</v>
+        <v>87.10499004626395</v>
       </c>
       <c r="M11" t="n">
-        <v>96.9210847612505</v>
+        <v>96.92108476125053</v>
       </c>
       <c r="N11" t="n">
-        <v>98.489369240562</v>
+        <v>98.48936924056201</v>
       </c>
       <c r="O11" t="n">
-        <v>93.0007185441595</v>
+        <v>93.00071854415951</v>
       </c>
       <c r="P11" t="n">
-        <v>79.37396162977241</v>
+        <v>79.37396162977242</v>
       </c>
       <c r="Q11" t="n">
-        <v>59.60653957421847</v>
+        <v>59.60653957421849</v>
       </c>
       <c r="R11" t="n">
         <v>34.67267925157947</v>
       </c>
       <c r="S11" t="n">
-        <v>12.57801410376084</v>
+        <v>12.57801410376085</v>
       </c>
       <c r="T11" t="n">
-        <v>2.416248238692839</v>
+        <v>2.41624823869284</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04415759202636824</v>
+        <v>0.04415759202636826</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2953299329923912</v>
+        <v>0.2953299329923913</v>
       </c>
       <c r="H12" t="n">
-        <v>2.852265405479147</v>
+        <v>2.852265405479148</v>
       </c>
       <c r="I12" t="n">
-        <v>10.16815778065908</v>
+        <v>10.16815778065909</v>
       </c>
       <c r="J12" t="n">
         <v>27.90220213416272</v>
       </c>
       <c r="K12" t="n">
-        <v>47.68930764465293</v>
+        <v>47.68930764465294</v>
       </c>
       <c r="L12" t="n">
         <v>64.12415935433478</v>
       </c>
       <c r="M12" t="n">
-        <v>74.82986942530894</v>
+        <v>74.82986942530896</v>
       </c>
       <c r="N12" t="n">
-        <v>76.81039340577108</v>
+        <v>76.81039340577109</v>
       </c>
       <c r="O12" t="n">
-        <v>70.26650383788704</v>
+        <v>70.26650383788706</v>
       </c>
       <c r="P12" t="n">
-        <v>56.39506413431022</v>
+        <v>56.39506413431023</v>
       </c>
       <c r="Q12" t="n">
-        <v>37.69860688513401</v>
+        <v>37.69860688513402</v>
       </c>
       <c r="R12" t="n">
         <v>18.33636198000128</v>
       </c>
       <c r="S12" t="n">
-        <v>5.485623974661298</v>
+        <v>5.485623974661299</v>
       </c>
       <c r="T12" t="n">
         <v>1.19038687903512</v>
@@ -31914,25 +31914,25 @@
         <v>2.201341925039922</v>
       </c>
       <c r="I13" t="n">
-        <v>7.445847738274088</v>
+        <v>7.44584773827409</v>
       </c>
       <c r="J13" t="n">
         <v>17.50494493970906</v>
       </c>
       <c r="K13" t="n">
-        <v>28.76600184254619</v>
+        <v>28.7660018425462</v>
       </c>
       <c r="L13" t="n">
-        <v>36.81057857065732</v>
+        <v>36.81057857065733</v>
       </c>
       <c r="M13" t="n">
-        <v>38.81159387879687</v>
+        <v>38.81159387879688</v>
       </c>
       <c r="N13" t="n">
-        <v>37.88874092453681</v>
+        <v>37.88874092453682</v>
       </c>
       <c r="O13" t="n">
-        <v>34.99638471423383</v>
+        <v>34.99638471423384</v>
       </c>
       <c r="P13" t="n">
         <v>29.94545293530786</v>
@@ -31944,13 +31944,13 @@
         <v>11.13275783358634</v>
       </c>
       <c r="S13" t="n">
-        <v>4.314900276381928</v>
+        <v>4.314900276381929</v>
       </c>
       <c r="T13" t="n">
         <v>1.057904606103029</v>
       </c>
       <c r="U13" t="n">
-        <v>0.013505165184294</v>
+        <v>0.01350516518429401</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5519699003296031</v>
+        <v>0.5519699003296038</v>
       </c>
       <c r="H14" t="n">
-        <v>5.65286174175055</v>
+        <v>5.652861741750557</v>
       </c>
       <c r="I14" t="n">
-        <v>21.27981958245705</v>
+        <v>21.27981958245707</v>
       </c>
       <c r="J14" t="n">
-        <v>46.8477553280997</v>
+        <v>46.84775532809976</v>
       </c>
       <c r="K14" t="n">
-        <v>70.21264120905181</v>
+        <v>70.21264120905191</v>
       </c>
       <c r="L14" t="n">
-        <v>87.10499004626392</v>
+        <v>87.10499004626404</v>
       </c>
       <c r="M14" t="n">
-        <v>96.9210847612505</v>
+        <v>96.92108476125063</v>
       </c>
       <c r="N14" t="n">
-        <v>98.489369240562</v>
+        <v>98.48936924056211</v>
       </c>
       <c r="O14" t="n">
-        <v>93.0007185441595</v>
+        <v>93.00071854415961</v>
       </c>
       <c r="P14" t="n">
-        <v>79.37396162977241</v>
+        <v>79.37396162977251</v>
       </c>
       <c r="Q14" t="n">
-        <v>59.60653957421847</v>
+        <v>59.60653957421855</v>
       </c>
       <c r="R14" t="n">
-        <v>34.67267925157947</v>
+        <v>34.67267925157951</v>
       </c>
       <c r="S14" t="n">
-        <v>12.57801410376084</v>
+        <v>12.57801410376086</v>
       </c>
       <c r="T14" t="n">
-        <v>2.416248238692839</v>
+        <v>2.416248238692842</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04415759202636824</v>
+        <v>0.0441575920263683</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2953299329923912</v>
+        <v>0.2953299329923916</v>
       </c>
       <c r="H15" t="n">
-        <v>2.852265405479147</v>
+        <v>2.852265405479151</v>
       </c>
       <c r="I15" t="n">
-        <v>10.16815778065908</v>
+        <v>10.1681577806591</v>
       </c>
       <c r="J15" t="n">
-        <v>27.90220213416272</v>
+        <v>27.90220213416275</v>
       </c>
       <c r="K15" t="n">
-        <v>47.68930764465293</v>
+        <v>47.68930764465298</v>
       </c>
       <c r="L15" t="n">
-        <v>64.12415935433478</v>
+        <v>64.12415935433485</v>
       </c>
       <c r="M15" t="n">
-        <v>74.82986942530894</v>
+        <v>74.82986942530903</v>
       </c>
       <c r="N15" t="n">
-        <v>76.81039340577108</v>
+        <v>76.81039340577118</v>
       </c>
       <c r="O15" t="n">
-        <v>70.26650383788704</v>
+        <v>70.26650383788713</v>
       </c>
       <c r="P15" t="n">
-        <v>56.39506413431022</v>
+        <v>56.39506413431029</v>
       </c>
       <c r="Q15" t="n">
-        <v>37.69860688513401</v>
+        <v>37.69860688513405</v>
       </c>
       <c r="R15" t="n">
-        <v>18.33636198000128</v>
+        <v>18.3363619800013</v>
       </c>
       <c r="S15" t="n">
-        <v>5.485623974661298</v>
+        <v>5.485623974661305</v>
       </c>
       <c r="T15" t="n">
-        <v>1.19038687903512</v>
+        <v>1.190386879035122</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01942960085476259</v>
+        <v>0.01942960085476261</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2475946950453898</v>
+        <v>0.2475946950453901</v>
       </c>
       <c r="H16" t="n">
-        <v>2.201341925039922</v>
+        <v>2.201341925039924</v>
       </c>
       <c r="I16" t="n">
-        <v>7.445847738274088</v>
+        <v>7.445847738274097</v>
       </c>
       <c r="J16" t="n">
-        <v>17.50494493970906</v>
+        <v>17.50494493970908</v>
       </c>
       <c r="K16" t="n">
-        <v>28.76600184254619</v>
+        <v>28.76600184254622</v>
       </c>
       <c r="L16" t="n">
-        <v>36.81057857065732</v>
+        <v>36.81057857065736</v>
       </c>
       <c r="M16" t="n">
-        <v>38.81159387879687</v>
+        <v>38.81159387879691</v>
       </c>
       <c r="N16" t="n">
-        <v>37.88874092453681</v>
+        <v>37.88874092453685</v>
       </c>
       <c r="O16" t="n">
-        <v>34.99638471423383</v>
+        <v>34.99638471423388</v>
       </c>
       <c r="P16" t="n">
-        <v>29.94545293530786</v>
+        <v>29.94545293530789</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.73267941875532</v>
+        <v>20.73267941875535</v>
       </c>
       <c r="R16" t="n">
-        <v>11.13275783358634</v>
+        <v>11.13275783358636</v>
       </c>
       <c r="S16" t="n">
-        <v>4.314900276381928</v>
+        <v>4.314900276381933</v>
       </c>
       <c r="T16" t="n">
-        <v>1.057904606103029</v>
+        <v>1.05790460610303</v>
       </c>
       <c r="U16" t="n">
-        <v>0.013505165184294</v>
+        <v>0.01350516518429402</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5519699003296031</v>
+        <v>0.551969900329603</v>
       </c>
       <c r="H17" t="n">
-        <v>5.65286174175055</v>
+        <v>5.652861741750549</v>
       </c>
       <c r="I17" t="n">
-        <v>21.27981958245705</v>
+        <v>21.27981958245704</v>
       </c>
       <c r="J17" t="n">
-        <v>46.8477553280997</v>
+        <v>46.84775532809969</v>
       </c>
       <c r="K17" t="n">
-        <v>70.21264120905181</v>
+        <v>70.2126412090518</v>
       </c>
       <c r="L17" t="n">
-        <v>87.10499004626392</v>
+        <v>87.10499004626391</v>
       </c>
       <c r="M17" t="n">
-        <v>96.9210847612505</v>
+        <v>96.92108476125048</v>
       </c>
       <c r="N17" t="n">
-        <v>98.489369240562</v>
+        <v>98.48936924056197</v>
       </c>
       <c r="O17" t="n">
-        <v>93.0007185441595</v>
+        <v>93.00071854415948</v>
       </c>
       <c r="P17" t="n">
-        <v>79.37396162977241</v>
+        <v>79.3739616297724</v>
       </c>
       <c r="Q17" t="n">
         <v>59.60653957421847</v>
       </c>
       <c r="R17" t="n">
-        <v>34.67267925157947</v>
+        <v>34.67267925157946</v>
       </c>
       <c r="S17" t="n">
         <v>12.57801410376084</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2953299329923912</v>
+        <v>0.2953299329923911</v>
       </c>
       <c r="H18" t="n">
         <v>2.852265405479147</v>
@@ -32312,40 +32312,40 @@
         <v>10.16815778065908</v>
       </c>
       <c r="J18" t="n">
-        <v>27.90220213416272</v>
+        <v>27.90220213416271</v>
       </c>
       <c r="K18" t="n">
-        <v>47.68930764465293</v>
+        <v>47.68930764465292</v>
       </c>
       <c r="L18" t="n">
-        <v>64.12415935433478</v>
+        <v>64.12415935433476</v>
       </c>
       <c r="M18" t="n">
-        <v>74.82986942530894</v>
+        <v>74.82986942530893</v>
       </c>
       <c r="N18" t="n">
-        <v>76.81039340577108</v>
+        <v>76.81039340577107</v>
       </c>
       <c r="O18" t="n">
-        <v>70.26650383788704</v>
+        <v>70.26650383788703</v>
       </c>
       <c r="P18" t="n">
-        <v>56.39506413431022</v>
+        <v>56.3950641343102</v>
       </c>
       <c r="Q18" t="n">
         <v>37.69860688513401</v>
       </c>
       <c r="R18" t="n">
-        <v>18.33636198000128</v>
+        <v>18.33636198000127</v>
       </c>
       <c r="S18" t="n">
-        <v>5.485623974661298</v>
+        <v>5.485623974661297</v>
       </c>
       <c r="T18" t="n">
         <v>1.19038687903512</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01942960085476259</v>
+        <v>0.01942960085476258</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,34 +32382,34 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2475946950453898</v>
+        <v>0.2475946950453897</v>
       </c>
       <c r="H19" t="n">
-        <v>2.201341925039922</v>
+        <v>2.201341925039921</v>
       </c>
       <c r="I19" t="n">
-        <v>7.445847738274088</v>
+        <v>7.445847738274086</v>
       </c>
       <c r="J19" t="n">
-        <v>17.50494493970906</v>
+        <v>17.50494493970905</v>
       </c>
       <c r="K19" t="n">
-        <v>28.76600184254619</v>
+        <v>28.76600184254618</v>
       </c>
       <c r="L19" t="n">
-        <v>36.81057857065732</v>
+        <v>36.81057857065731</v>
       </c>
       <c r="M19" t="n">
-        <v>38.81159387879687</v>
+        <v>38.81159387879686</v>
       </c>
       <c r="N19" t="n">
-        <v>37.88874092453681</v>
+        <v>37.8887409245368</v>
       </c>
       <c r="O19" t="n">
         <v>34.99638471423383</v>
       </c>
       <c r="P19" t="n">
-        <v>29.94545293530786</v>
+        <v>29.94545293530785</v>
       </c>
       <c r="Q19" t="n">
         <v>20.73267941875532</v>
@@ -32418,7 +32418,7 @@
         <v>11.13275783358634</v>
       </c>
       <c r="S19" t="n">
-        <v>4.314900276381928</v>
+        <v>4.314900276381927</v>
       </c>
       <c r="T19" t="n">
         <v>1.057904606103029</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5519699003296031</v>
+        <v>0.551969900329603</v>
       </c>
       <c r="H20" t="n">
-        <v>5.65286174175055</v>
+        <v>5.652861741750549</v>
       </c>
       <c r="I20" t="n">
-        <v>21.27981958245705</v>
+        <v>21.27981958245704</v>
       </c>
       <c r="J20" t="n">
-        <v>46.8477553280997</v>
+        <v>46.84775532809969</v>
       </c>
       <c r="K20" t="n">
-        <v>70.21264120905181</v>
+        <v>70.2126412090518</v>
       </c>
       <c r="L20" t="n">
-        <v>87.10499004626392</v>
+        <v>87.10499004626391</v>
       </c>
       <c r="M20" t="n">
-        <v>96.9210847612505</v>
+        <v>96.92108476125048</v>
       </c>
       <c r="N20" t="n">
-        <v>98.489369240562</v>
+        <v>98.48936924056197</v>
       </c>
       <c r="O20" t="n">
-        <v>93.0007185441595</v>
+        <v>93.00071854415948</v>
       </c>
       <c r="P20" t="n">
-        <v>79.37396162977241</v>
+        <v>79.3739616297724</v>
       </c>
       <c r="Q20" t="n">
         <v>59.60653957421847</v>
       </c>
       <c r="R20" t="n">
-        <v>34.67267925157947</v>
+        <v>34.67267925157946</v>
       </c>
       <c r="S20" t="n">
         <v>12.57801410376084</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2953299329923912</v>
+        <v>0.2953299329923911</v>
       </c>
       <c r="H21" t="n">
         <v>2.852265405479147</v>
@@ -32549,40 +32549,40 @@
         <v>10.16815778065908</v>
       </c>
       <c r="J21" t="n">
-        <v>27.90220213416272</v>
+        <v>27.90220213416271</v>
       </c>
       <c r="K21" t="n">
-        <v>47.68930764465293</v>
+        <v>47.68930764465292</v>
       </c>
       <c r="L21" t="n">
-        <v>64.12415935433478</v>
+        <v>64.12415935433476</v>
       </c>
       <c r="M21" t="n">
-        <v>74.82986942530894</v>
+        <v>74.82986942530893</v>
       </c>
       <c r="N21" t="n">
-        <v>76.81039340577108</v>
+        <v>76.81039340577107</v>
       </c>
       <c r="O21" t="n">
-        <v>70.26650383788704</v>
+        <v>70.26650383788703</v>
       </c>
       <c r="P21" t="n">
-        <v>56.39506413431022</v>
+        <v>56.3950641343102</v>
       </c>
       <c r="Q21" t="n">
         <v>37.69860688513401</v>
       </c>
       <c r="R21" t="n">
-        <v>18.33636198000128</v>
+        <v>18.33636198000127</v>
       </c>
       <c r="S21" t="n">
-        <v>5.485623974661298</v>
+        <v>5.485623974661297</v>
       </c>
       <c r="T21" t="n">
         <v>1.19038687903512</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01942960085476259</v>
+        <v>0.01942960085476258</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,34 +32619,34 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2475946950453898</v>
+        <v>0.2475946950453897</v>
       </c>
       <c r="H22" t="n">
-        <v>2.201341925039922</v>
+        <v>2.201341925039921</v>
       </c>
       <c r="I22" t="n">
-        <v>7.445847738274088</v>
+        <v>7.445847738274086</v>
       </c>
       <c r="J22" t="n">
-        <v>17.50494493970906</v>
+        <v>17.50494493970905</v>
       </c>
       <c r="K22" t="n">
-        <v>28.76600184254619</v>
+        <v>28.76600184254618</v>
       </c>
       <c r="L22" t="n">
-        <v>36.81057857065732</v>
+        <v>36.81057857065731</v>
       </c>
       <c r="M22" t="n">
-        <v>38.81159387879687</v>
+        <v>38.81159387879686</v>
       </c>
       <c r="N22" t="n">
-        <v>37.88874092453681</v>
+        <v>37.8887409245368</v>
       </c>
       <c r="O22" t="n">
         <v>34.99638471423383</v>
       </c>
       <c r="P22" t="n">
-        <v>29.94545293530786</v>
+        <v>29.94545293530785</v>
       </c>
       <c r="Q22" t="n">
         <v>20.73267941875532</v>
@@ -32655,7 +32655,7 @@
         <v>11.13275783358634</v>
       </c>
       <c r="S22" t="n">
-        <v>4.314900276381928</v>
+        <v>4.314900276381927</v>
       </c>
       <c r="T22" t="n">
         <v>1.057904606103029</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5519699003296031</v>
+        <v>0.551969900329603</v>
       </c>
       <c r="H23" t="n">
-        <v>5.65286174175055</v>
+        <v>5.652861741750549</v>
       </c>
       <c r="I23" t="n">
-        <v>21.27981958245705</v>
+        <v>21.27981958245704</v>
       </c>
       <c r="J23" t="n">
-        <v>46.8477553280997</v>
+        <v>46.84775532809969</v>
       </c>
       <c r="K23" t="n">
-        <v>70.21264120905181</v>
+        <v>70.2126412090518</v>
       </c>
       <c r="L23" t="n">
-        <v>87.10499004626392</v>
+        <v>87.10499004626391</v>
       </c>
       <c r="M23" t="n">
-        <v>96.9210847612505</v>
+        <v>96.92108476125048</v>
       </c>
       <c r="N23" t="n">
-        <v>98.489369240562</v>
+        <v>98.48936924056197</v>
       </c>
       <c r="O23" t="n">
-        <v>93.0007185441595</v>
+        <v>93.00071854415948</v>
       </c>
       <c r="P23" t="n">
-        <v>79.37396162977241</v>
+        <v>79.3739616297724</v>
       </c>
       <c r="Q23" t="n">
         <v>59.60653957421847</v>
       </c>
       <c r="R23" t="n">
-        <v>34.67267925157947</v>
+        <v>34.67267925157946</v>
       </c>
       <c r="S23" t="n">
         <v>12.57801410376084</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2953299329923912</v>
+        <v>0.2953299329923911</v>
       </c>
       <c r="H24" t="n">
         <v>2.852265405479147</v>
@@ -32786,40 +32786,40 @@
         <v>10.16815778065908</v>
       </c>
       <c r="J24" t="n">
-        <v>27.90220213416272</v>
+        <v>27.90220213416271</v>
       </c>
       <c r="K24" t="n">
-        <v>47.68930764465293</v>
+        <v>47.68930764465292</v>
       </c>
       <c r="L24" t="n">
-        <v>64.12415935433478</v>
+        <v>64.12415935433476</v>
       </c>
       <c r="M24" t="n">
-        <v>74.82986942530894</v>
+        <v>74.82986942530893</v>
       </c>
       <c r="N24" t="n">
-        <v>76.81039340577108</v>
+        <v>76.81039340577107</v>
       </c>
       <c r="O24" t="n">
-        <v>70.26650383788704</v>
+        <v>70.26650383788703</v>
       </c>
       <c r="P24" t="n">
-        <v>56.39506413431022</v>
+        <v>56.3950641343102</v>
       </c>
       <c r="Q24" t="n">
         <v>37.69860688513401</v>
       </c>
       <c r="R24" t="n">
-        <v>18.33636198000128</v>
+        <v>18.33636198000127</v>
       </c>
       <c r="S24" t="n">
-        <v>5.485623974661298</v>
+        <v>5.485623974661297</v>
       </c>
       <c r="T24" t="n">
         <v>1.19038687903512</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01942960085476259</v>
+        <v>0.01942960085476258</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,34 +32856,34 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2475946950453898</v>
+        <v>0.2475946950453897</v>
       </c>
       <c r="H25" t="n">
-        <v>2.201341925039922</v>
+        <v>2.201341925039921</v>
       </c>
       <c r="I25" t="n">
-        <v>7.445847738274088</v>
+        <v>7.445847738274086</v>
       </c>
       <c r="J25" t="n">
-        <v>17.50494493970906</v>
+        <v>17.50494493970905</v>
       </c>
       <c r="K25" t="n">
-        <v>28.76600184254619</v>
+        <v>28.76600184254618</v>
       </c>
       <c r="L25" t="n">
-        <v>36.81057857065732</v>
+        <v>36.81057857065731</v>
       </c>
       <c r="M25" t="n">
-        <v>38.81159387879687</v>
+        <v>38.81159387879686</v>
       </c>
       <c r="N25" t="n">
-        <v>37.88874092453681</v>
+        <v>37.8887409245368</v>
       </c>
       <c r="O25" t="n">
         <v>34.99638471423383</v>
       </c>
       <c r="P25" t="n">
-        <v>29.94545293530786</v>
+        <v>29.94545293530785</v>
       </c>
       <c r="Q25" t="n">
         <v>20.73267941875532</v>
@@ -32892,7 +32892,7 @@
         <v>11.13275783358634</v>
       </c>
       <c r="S25" t="n">
-        <v>4.314900276381928</v>
+        <v>4.314900276381927</v>
       </c>
       <c r="T25" t="n">
         <v>1.057904606103029</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5519699003296031</v>
+        <v>0.551969900329603</v>
       </c>
       <c r="H26" t="n">
-        <v>5.65286174175055</v>
+        <v>5.652861741750549</v>
       </c>
       <c r="I26" t="n">
-        <v>21.27981958245705</v>
+        <v>21.27981958245704</v>
       </c>
       <c r="J26" t="n">
-        <v>46.8477553280997</v>
+        <v>46.84775532809969</v>
       </c>
       <c r="K26" t="n">
-        <v>70.21264120905181</v>
+        <v>70.2126412090518</v>
       </c>
       <c r="L26" t="n">
-        <v>87.10499004626392</v>
+        <v>87.10499004626391</v>
       </c>
       <c r="M26" t="n">
-        <v>96.9210847612505</v>
+        <v>96.92108476125048</v>
       </c>
       <c r="N26" t="n">
-        <v>98.489369240562</v>
+        <v>98.48936924056197</v>
       </c>
       <c r="O26" t="n">
-        <v>93.0007185441595</v>
+        <v>93.00071854415948</v>
       </c>
       <c r="P26" t="n">
-        <v>79.37396162977241</v>
+        <v>79.3739616297724</v>
       </c>
       <c r="Q26" t="n">
         <v>59.60653957421847</v>
       </c>
       <c r="R26" t="n">
-        <v>34.67267925157947</v>
+        <v>34.67267925157946</v>
       </c>
       <c r="S26" t="n">
         <v>12.57801410376084</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2953299329923912</v>
+        <v>0.2953299329923911</v>
       </c>
       <c r="H27" t="n">
         <v>2.852265405479147</v>
@@ -33023,40 +33023,40 @@
         <v>10.16815778065908</v>
       </c>
       <c r="J27" t="n">
-        <v>27.90220213416272</v>
+        <v>27.90220213416271</v>
       </c>
       <c r="K27" t="n">
-        <v>47.68930764465293</v>
+        <v>47.68930764465292</v>
       </c>
       <c r="L27" t="n">
-        <v>64.12415935433478</v>
+        <v>64.12415935433476</v>
       </c>
       <c r="M27" t="n">
-        <v>74.82986942530894</v>
+        <v>74.82986942530893</v>
       </c>
       <c r="N27" t="n">
-        <v>76.81039340577108</v>
+        <v>76.81039340577107</v>
       </c>
       <c r="O27" t="n">
-        <v>70.26650383788704</v>
+        <v>70.26650383788703</v>
       </c>
       <c r="P27" t="n">
-        <v>56.39506413431022</v>
+        <v>56.3950641343102</v>
       </c>
       <c r="Q27" t="n">
         <v>37.69860688513401</v>
       </c>
       <c r="R27" t="n">
-        <v>18.33636198000128</v>
+        <v>18.33636198000127</v>
       </c>
       <c r="S27" t="n">
-        <v>5.485623974661298</v>
+        <v>5.485623974661297</v>
       </c>
       <c r="T27" t="n">
         <v>1.19038687903512</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01942960085476259</v>
+        <v>0.01942960085476258</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,34 +33093,34 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2475946950453898</v>
+        <v>0.2475946950453897</v>
       </c>
       <c r="H28" t="n">
-        <v>2.201341925039922</v>
+        <v>2.201341925039921</v>
       </c>
       <c r="I28" t="n">
-        <v>7.445847738274088</v>
+        <v>7.445847738274086</v>
       </c>
       <c r="J28" t="n">
-        <v>17.50494493970906</v>
+        <v>17.50494493970905</v>
       </c>
       <c r="K28" t="n">
-        <v>28.76600184254619</v>
+        <v>28.76600184254618</v>
       </c>
       <c r="L28" t="n">
-        <v>36.81057857065732</v>
+        <v>36.81057857065731</v>
       </c>
       <c r="M28" t="n">
-        <v>38.81159387879687</v>
+        <v>38.81159387879686</v>
       </c>
       <c r="N28" t="n">
-        <v>37.88874092453681</v>
+        <v>37.8887409245368</v>
       </c>
       <c r="O28" t="n">
         <v>34.99638471423383</v>
       </c>
       <c r="P28" t="n">
-        <v>29.94545293530786</v>
+        <v>29.94545293530785</v>
       </c>
       <c r="Q28" t="n">
         <v>20.73267941875532</v>
@@ -33129,7 +33129,7 @@
         <v>11.13275783358634</v>
       </c>
       <c r="S28" t="n">
-        <v>4.314900276381928</v>
+        <v>4.314900276381927</v>
       </c>
       <c r="T28" t="n">
         <v>1.057904606103029</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5519699003296029</v>
+        <v>0.551969900329603</v>
       </c>
       <c r="H29" t="n">
-        <v>5.652861741750548</v>
+        <v>5.652861741750549</v>
       </c>
       <c r="I29" t="n">
         <v>21.27981958245704</v>
       </c>
       <c r="J29" t="n">
-        <v>46.84775532809968</v>
+        <v>46.84775532809969</v>
       </c>
       <c r="K29" t="n">
-        <v>70.21264120905178</v>
+        <v>70.2126412090518</v>
       </c>
       <c r="L29" t="n">
-        <v>87.10499004626389</v>
+        <v>87.10499004626391</v>
       </c>
       <c r="M29" t="n">
-        <v>96.92108476125047</v>
+        <v>96.92108476125048</v>
       </c>
       <c r="N29" t="n">
-        <v>98.48936924056196</v>
+        <v>98.48936924056197</v>
       </c>
       <c r="O29" t="n">
-        <v>93.00071854415945</v>
+        <v>93.00071854415948</v>
       </c>
       <c r="P29" t="n">
-        <v>79.37396162977238</v>
+        <v>79.3739616297724</v>
       </c>
       <c r="Q29" t="n">
-        <v>59.60653957421845</v>
+        <v>59.60653957421847</v>
       </c>
       <c r="R29" t="n">
-        <v>34.67267925157945</v>
+        <v>34.67267925157946</v>
       </c>
       <c r="S29" t="n">
         <v>12.57801410376084</v>
       </c>
       <c r="T29" t="n">
-        <v>2.416248238692838</v>
+        <v>2.416248238692839</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04415759202636823</v>
+        <v>0.04415759202636824</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,7 +33254,7 @@
         <v>0.2953299329923911</v>
       </c>
       <c r="H30" t="n">
-        <v>2.852265405479146</v>
+        <v>2.852265405479147</v>
       </c>
       <c r="I30" t="n">
         <v>10.16815778065908</v>
@@ -33263,31 +33263,31 @@
         <v>27.90220213416271</v>
       </c>
       <c r="K30" t="n">
-        <v>47.68930764465291</v>
+        <v>47.68930764465292</v>
       </c>
       <c r="L30" t="n">
-        <v>64.12415935433475</v>
+        <v>64.12415935433476</v>
       </c>
       <c r="M30" t="n">
-        <v>74.8298694253089</v>
+        <v>74.82986942530893</v>
       </c>
       <c r="N30" t="n">
-        <v>76.81039340577105</v>
+        <v>76.81039340577107</v>
       </c>
       <c r="O30" t="n">
-        <v>70.26650383788702</v>
+        <v>70.26650383788703</v>
       </c>
       <c r="P30" t="n">
         <v>56.3950641343102</v>
       </c>
       <c r="Q30" t="n">
-        <v>37.698606885134</v>
+        <v>37.69860688513401</v>
       </c>
       <c r="R30" t="n">
         <v>18.33636198000127</v>
       </c>
       <c r="S30" t="n">
-        <v>5.485623974661296</v>
+        <v>5.485623974661297</v>
       </c>
       <c r="T30" t="n">
         <v>1.19038687903512</v>
@@ -33336,7 +33336,7 @@
         <v>2.201341925039921</v>
       </c>
       <c r="I31" t="n">
-        <v>7.445847738274084</v>
+        <v>7.445847738274086</v>
       </c>
       <c r="J31" t="n">
         <v>17.50494493970905</v>
@@ -33348,28 +33348,28 @@
         <v>36.81057857065731</v>
       </c>
       <c r="M31" t="n">
-        <v>38.81159387879685</v>
+        <v>38.81159387879686</v>
       </c>
       <c r="N31" t="n">
-        <v>37.88874092453679</v>
+        <v>37.8887409245368</v>
       </c>
       <c r="O31" t="n">
-        <v>34.99638471423382</v>
+        <v>34.99638471423383</v>
       </c>
       <c r="P31" t="n">
-        <v>29.94545293530784</v>
+        <v>29.94545293530785</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.73267941875531</v>
+        <v>20.73267941875532</v>
       </c>
       <c r="R31" t="n">
         <v>11.13275783358634</v>
       </c>
       <c r="S31" t="n">
-        <v>4.314900276381926</v>
+        <v>4.314900276381927</v>
       </c>
       <c r="T31" t="n">
-        <v>1.057904606103028</v>
+        <v>1.057904606103029</v>
       </c>
       <c r="U31" t="n">
         <v>0.013505165184294</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5519699003296029</v>
+        <v>0.551969900329603</v>
       </c>
       <c r="H32" t="n">
-        <v>5.652861741750548</v>
+        <v>5.652861741750549</v>
       </c>
       <c r="I32" t="n">
         <v>21.27981958245704</v>
       </c>
       <c r="J32" t="n">
-        <v>46.84775532809968</v>
+        <v>46.84775532809969</v>
       </c>
       <c r="K32" t="n">
-        <v>70.21264120905178</v>
+        <v>70.2126412090518</v>
       </c>
       <c r="L32" t="n">
-        <v>87.10499004626389</v>
+        <v>87.10499004626391</v>
       </c>
       <c r="M32" t="n">
-        <v>96.92108476125047</v>
+        <v>96.92108476125048</v>
       </c>
       <c r="N32" t="n">
-        <v>98.48936924056196</v>
+        <v>98.48936924056197</v>
       </c>
       <c r="O32" t="n">
-        <v>93.00071854415945</v>
+        <v>93.00071854415948</v>
       </c>
       <c r="P32" t="n">
-        <v>79.37396162977238</v>
+        <v>79.3739616297724</v>
       </c>
       <c r="Q32" t="n">
-        <v>59.60653957421845</v>
+        <v>59.60653957421847</v>
       </c>
       <c r="R32" t="n">
-        <v>34.67267925157945</v>
+        <v>34.67267925157946</v>
       </c>
       <c r="S32" t="n">
         <v>12.57801410376084</v>
       </c>
       <c r="T32" t="n">
-        <v>2.416248238692838</v>
+        <v>2.416248238692839</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04415759202636823</v>
+        <v>0.04415759202636824</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,7 +33491,7 @@
         <v>0.2953299329923911</v>
       </c>
       <c r="H33" t="n">
-        <v>2.852265405479146</v>
+        <v>2.852265405479147</v>
       </c>
       <c r="I33" t="n">
         <v>10.16815778065908</v>
@@ -33500,31 +33500,31 @@
         <v>27.90220213416271</v>
       </c>
       <c r="K33" t="n">
-        <v>47.68930764465291</v>
+        <v>47.68930764465292</v>
       </c>
       <c r="L33" t="n">
-        <v>64.12415935433475</v>
+        <v>64.12415935433476</v>
       </c>
       <c r="M33" t="n">
-        <v>74.8298694253089</v>
+        <v>74.82986942530893</v>
       </c>
       <c r="N33" t="n">
-        <v>76.81039340577105</v>
+        <v>76.81039340577107</v>
       </c>
       <c r="O33" t="n">
-        <v>70.26650383788702</v>
+        <v>70.26650383788703</v>
       </c>
       <c r="P33" t="n">
         <v>56.3950641343102</v>
       </c>
       <c r="Q33" t="n">
-        <v>37.698606885134</v>
+        <v>37.69860688513401</v>
       </c>
       <c r="R33" t="n">
         <v>18.33636198000127</v>
       </c>
       <c r="S33" t="n">
-        <v>5.485623974661296</v>
+        <v>5.485623974661297</v>
       </c>
       <c r="T33" t="n">
         <v>1.19038687903512</v>
@@ -33573,7 +33573,7 @@
         <v>2.201341925039921</v>
       </c>
       <c r="I34" t="n">
-        <v>7.445847738274084</v>
+        <v>7.445847738274086</v>
       </c>
       <c r="J34" t="n">
         <v>17.50494493970905</v>
@@ -33585,28 +33585,28 @@
         <v>36.81057857065731</v>
       </c>
       <c r="M34" t="n">
-        <v>38.81159387879685</v>
+        <v>38.81159387879686</v>
       </c>
       <c r="N34" t="n">
-        <v>37.88874092453679</v>
+        <v>37.8887409245368</v>
       </c>
       <c r="O34" t="n">
-        <v>34.99638471423382</v>
+        <v>34.99638471423383</v>
       </c>
       <c r="P34" t="n">
-        <v>29.94545293530784</v>
+        <v>29.94545293530785</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.73267941875531</v>
+        <v>20.73267941875532</v>
       </c>
       <c r="R34" t="n">
         <v>11.13275783358634</v>
       </c>
       <c r="S34" t="n">
-        <v>4.314900276381926</v>
+        <v>4.314900276381927</v>
       </c>
       <c r="T34" t="n">
-        <v>1.057904606103028</v>
+        <v>1.057904606103029</v>
       </c>
       <c r="U34" t="n">
         <v>0.013505165184294</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5519699003296029</v>
+        <v>0.551969900329603</v>
       </c>
       <c r="H35" t="n">
-        <v>5.652861741750548</v>
+        <v>5.652861741750549</v>
       </c>
       <c r="I35" t="n">
         <v>21.27981958245704</v>
       </c>
       <c r="J35" t="n">
-        <v>46.84775532809968</v>
+        <v>46.84775532809969</v>
       </c>
       <c r="K35" t="n">
-        <v>70.21264120905178</v>
+        <v>70.2126412090518</v>
       </c>
       <c r="L35" t="n">
-        <v>87.10499004626389</v>
+        <v>87.10499004626391</v>
       </c>
       <c r="M35" t="n">
-        <v>96.92108476125047</v>
+        <v>96.92108476125048</v>
       </c>
       <c r="N35" t="n">
-        <v>98.48936924056196</v>
+        <v>98.48936924056197</v>
       </c>
       <c r="O35" t="n">
-        <v>93.00071854415945</v>
+        <v>93.00071854415948</v>
       </c>
       <c r="P35" t="n">
-        <v>79.37396162977238</v>
+        <v>79.3739616297724</v>
       </c>
       <c r="Q35" t="n">
-        <v>59.60653957421845</v>
+        <v>59.60653957421847</v>
       </c>
       <c r="R35" t="n">
-        <v>34.67267925157945</v>
+        <v>34.67267925157946</v>
       </c>
       <c r="S35" t="n">
         <v>12.57801410376084</v>
       </c>
       <c r="T35" t="n">
-        <v>2.416248238692838</v>
+        <v>2.416248238692839</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04415759202636823</v>
+        <v>0.04415759202636824</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,7 +33728,7 @@
         <v>0.2953299329923911</v>
       </c>
       <c r="H36" t="n">
-        <v>2.852265405479146</v>
+        <v>2.852265405479147</v>
       </c>
       <c r="I36" t="n">
         <v>10.16815778065908</v>
@@ -33737,31 +33737,31 @@
         <v>27.90220213416271</v>
       </c>
       <c r="K36" t="n">
-        <v>47.68930764465291</v>
+        <v>47.68930764465292</v>
       </c>
       <c r="L36" t="n">
-        <v>64.12415935433475</v>
+        <v>64.12415935433476</v>
       </c>
       <c r="M36" t="n">
-        <v>74.8298694253089</v>
+        <v>74.82986942530893</v>
       </c>
       <c r="N36" t="n">
-        <v>76.81039340577105</v>
+        <v>76.81039340577107</v>
       </c>
       <c r="O36" t="n">
-        <v>70.26650383788702</v>
+        <v>70.26650383788703</v>
       </c>
       <c r="P36" t="n">
         <v>56.3950641343102</v>
       </c>
       <c r="Q36" t="n">
-        <v>37.698606885134</v>
+        <v>37.69860688513401</v>
       </c>
       <c r="R36" t="n">
         <v>18.33636198000127</v>
       </c>
       <c r="S36" t="n">
-        <v>5.485623974661296</v>
+        <v>5.485623974661297</v>
       </c>
       <c r="T36" t="n">
         <v>1.19038687903512</v>
@@ -33810,7 +33810,7 @@
         <v>2.201341925039921</v>
       </c>
       <c r="I37" t="n">
-        <v>7.445847738274084</v>
+        <v>7.445847738274086</v>
       </c>
       <c r="J37" t="n">
         <v>17.50494493970905</v>
@@ -33822,28 +33822,28 @@
         <v>36.81057857065731</v>
       </c>
       <c r="M37" t="n">
-        <v>38.81159387879685</v>
+        <v>38.81159387879686</v>
       </c>
       <c r="N37" t="n">
-        <v>37.88874092453679</v>
+        <v>37.8887409245368</v>
       </c>
       <c r="O37" t="n">
-        <v>34.99638471423382</v>
+        <v>34.99638471423383</v>
       </c>
       <c r="P37" t="n">
-        <v>29.94545293530784</v>
+        <v>29.94545293530785</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.73267941875531</v>
+        <v>20.73267941875532</v>
       </c>
       <c r="R37" t="n">
         <v>11.13275783358634</v>
       </c>
       <c r="S37" t="n">
-        <v>4.314900276381926</v>
+        <v>4.314900276381927</v>
       </c>
       <c r="T37" t="n">
-        <v>1.057904606103028</v>
+        <v>1.057904606103029</v>
       </c>
       <c r="U37" t="n">
         <v>0.013505165184294</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5519699003296029</v>
+        <v>0.551969900329603</v>
       </c>
       <c r="H38" t="n">
-        <v>5.652861741750548</v>
+        <v>5.652861741750549</v>
       </c>
       <c r="I38" t="n">
         <v>21.27981958245704</v>
       </c>
       <c r="J38" t="n">
-        <v>46.84775532809968</v>
+        <v>46.84775532809969</v>
       </c>
       <c r="K38" t="n">
-        <v>70.21264120905178</v>
+        <v>70.2126412090518</v>
       </c>
       <c r="L38" t="n">
-        <v>87.10499004626389</v>
+        <v>87.10499004626391</v>
       </c>
       <c r="M38" t="n">
-        <v>96.92108476125047</v>
+        <v>96.92108476125048</v>
       </c>
       <c r="N38" t="n">
-        <v>98.48936924056196</v>
+        <v>98.48936924056197</v>
       </c>
       <c r="O38" t="n">
-        <v>93.00071854415945</v>
+        <v>93.00071854415948</v>
       </c>
       <c r="P38" t="n">
-        <v>79.37396162977238</v>
+        <v>79.3739616297724</v>
       </c>
       <c r="Q38" t="n">
-        <v>59.60653957421845</v>
+        <v>59.60653957421847</v>
       </c>
       <c r="R38" t="n">
-        <v>34.67267925157945</v>
+        <v>34.67267925157946</v>
       </c>
       <c r="S38" t="n">
         <v>12.57801410376084</v>
       </c>
       <c r="T38" t="n">
-        <v>2.416248238692838</v>
+        <v>2.416248238692839</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04415759202636823</v>
+        <v>0.04415759202636824</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,7 +33965,7 @@
         <v>0.2953299329923911</v>
       </c>
       <c r="H39" t="n">
-        <v>2.852265405479146</v>
+        <v>2.852265405479147</v>
       </c>
       <c r="I39" t="n">
         <v>10.16815778065908</v>
@@ -33974,31 +33974,31 @@
         <v>27.90220213416271</v>
       </c>
       <c r="K39" t="n">
-        <v>47.68930764465291</v>
+        <v>47.68930764465292</v>
       </c>
       <c r="L39" t="n">
-        <v>64.12415935433475</v>
+        <v>64.12415935433476</v>
       </c>
       <c r="M39" t="n">
-        <v>74.8298694253089</v>
+        <v>74.82986942530893</v>
       </c>
       <c r="N39" t="n">
-        <v>76.81039340577105</v>
+        <v>76.81039340577107</v>
       </c>
       <c r="O39" t="n">
-        <v>70.26650383788702</v>
+        <v>70.26650383788703</v>
       </c>
       <c r="P39" t="n">
         <v>56.3950641343102</v>
       </c>
       <c r="Q39" t="n">
-        <v>37.698606885134</v>
+        <v>37.69860688513401</v>
       </c>
       <c r="R39" t="n">
         <v>18.33636198000127</v>
       </c>
       <c r="S39" t="n">
-        <v>5.485623974661296</v>
+        <v>5.485623974661297</v>
       </c>
       <c r="T39" t="n">
         <v>1.19038687903512</v>
@@ -34047,7 +34047,7 @@
         <v>2.201341925039921</v>
       </c>
       <c r="I40" t="n">
-        <v>7.445847738274084</v>
+        <v>7.445847738274086</v>
       </c>
       <c r="J40" t="n">
         <v>17.50494493970905</v>
@@ -34059,28 +34059,28 @@
         <v>36.81057857065731</v>
       </c>
       <c r="M40" t="n">
-        <v>38.81159387879685</v>
+        <v>38.81159387879686</v>
       </c>
       <c r="N40" t="n">
-        <v>37.88874092453679</v>
+        <v>37.8887409245368</v>
       </c>
       <c r="O40" t="n">
-        <v>34.99638471423382</v>
+        <v>34.99638471423383</v>
       </c>
       <c r="P40" t="n">
-        <v>29.94545293530784</v>
+        <v>29.94545293530785</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.73267941875531</v>
+        <v>20.73267941875532</v>
       </c>
       <c r="R40" t="n">
         <v>11.13275783358634</v>
       </c>
       <c r="S40" t="n">
-        <v>4.314900276381926</v>
+        <v>4.314900276381927</v>
       </c>
       <c r="T40" t="n">
-        <v>1.057904606103028</v>
+        <v>1.057904606103029</v>
       </c>
       <c r="U40" t="n">
         <v>0.013505165184294</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5519699003296029</v>
+        <v>0.551969900329603</v>
       </c>
       <c r="H41" t="n">
-        <v>5.652861741750548</v>
+        <v>5.652861741750549</v>
       </c>
       <c r="I41" t="n">
         <v>21.27981958245704</v>
       </c>
       <c r="J41" t="n">
-        <v>46.84775532809968</v>
+        <v>46.84775532809969</v>
       </c>
       <c r="K41" t="n">
-        <v>70.21264120905178</v>
+        <v>70.2126412090518</v>
       </c>
       <c r="L41" t="n">
-        <v>87.10499004626389</v>
+        <v>87.10499004626391</v>
       </c>
       <c r="M41" t="n">
-        <v>96.92108476125047</v>
+        <v>96.92108476125048</v>
       </c>
       <c r="N41" t="n">
-        <v>98.48936924056196</v>
+        <v>98.48936924056197</v>
       </c>
       <c r="O41" t="n">
-        <v>93.00071854415945</v>
+        <v>93.00071854415948</v>
       </c>
       <c r="P41" t="n">
-        <v>79.37396162977238</v>
+        <v>79.3739616297724</v>
       </c>
       <c r="Q41" t="n">
-        <v>59.60653957421845</v>
+        <v>59.60653957421847</v>
       </c>
       <c r="R41" t="n">
-        <v>34.67267925157945</v>
+        <v>34.67267925157946</v>
       </c>
       <c r="S41" t="n">
         <v>12.57801410376084</v>
       </c>
       <c r="T41" t="n">
-        <v>2.416248238692838</v>
+        <v>2.416248238692839</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04415759202636823</v>
+        <v>0.04415759202636824</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,7 +34202,7 @@
         <v>0.2953299329923911</v>
       </c>
       <c r="H42" t="n">
-        <v>2.852265405479146</v>
+        <v>2.852265405479147</v>
       </c>
       <c r="I42" t="n">
         <v>10.16815778065908</v>
@@ -34211,31 +34211,31 @@
         <v>27.90220213416271</v>
       </c>
       <c r="K42" t="n">
-        <v>47.68930764465291</v>
+        <v>47.68930764465292</v>
       </c>
       <c r="L42" t="n">
-        <v>64.12415935433475</v>
+        <v>64.12415935433476</v>
       </c>
       <c r="M42" t="n">
-        <v>74.8298694253089</v>
+        <v>74.82986942530893</v>
       </c>
       <c r="N42" t="n">
-        <v>76.81039340577105</v>
+        <v>76.81039340577107</v>
       </c>
       <c r="O42" t="n">
-        <v>70.26650383788702</v>
+        <v>70.26650383788703</v>
       </c>
       <c r="P42" t="n">
         <v>56.3950641343102</v>
       </c>
       <c r="Q42" t="n">
-        <v>37.698606885134</v>
+        <v>37.69860688513401</v>
       </c>
       <c r="R42" t="n">
         <v>18.33636198000127</v>
       </c>
       <c r="S42" t="n">
-        <v>5.485623974661296</v>
+        <v>5.485623974661297</v>
       </c>
       <c r="T42" t="n">
         <v>1.19038687903512</v>
@@ -34284,7 +34284,7 @@
         <v>2.201341925039921</v>
       </c>
       <c r="I43" t="n">
-        <v>7.445847738274084</v>
+        <v>7.445847738274086</v>
       </c>
       <c r="J43" t="n">
         <v>17.50494493970905</v>
@@ -34296,28 +34296,28 @@
         <v>36.81057857065731</v>
       </c>
       <c r="M43" t="n">
-        <v>38.81159387879685</v>
+        <v>38.81159387879686</v>
       </c>
       <c r="N43" t="n">
-        <v>37.88874092453679</v>
+        <v>37.8887409245368</v>
       </c>
       <c r="O43" t="n">
-        <v>34.99638471423382</v>
+        <v>34.99638471423383</v>
       </c>
       <c r="P43" t="n">
-        <v>29.94545293530784</v>
+        <v>29.94545293530785</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.73267941875531</v>
+        <v>20.73267941875532</v>
       </c>
       <c r="R43" t="n">
         <v>11.13275783358634</v>
       </c>
       <c r="S43" t="n">
-        <v>4.314900276381926</v>
+        <v>4.314900276381927</v>
       </c>
       <c r="T43" t="n">
-        <v>1.057904606103028</v>
+        <v>1.057904606103029</v>
       </c>
       <c r="U43" t="n">
         <v>0.013505165184294</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5519699003296029</v>
+        <v>0.551969900329603</v>
       </c>
       <c r="H44" t="n">
-        <v>5.652861741750548</v>
+        <v>5.652861741750549</v>
       </c>
       <c r="I44" t="n">
         <v>21.27981958245704</v>
       </c>
       <c r="J44" t="n">
-        <v>46.84775532809968</v>
+        <v>46.84775532809969</v>
       </c>
       <c r="K44" t="n">
-        <v>70.21264120905178</v>
+        <v>70.2126412090518</v>
       </c>
       <c r="L44" t="n">
-        <v>87.10499004626389</v>
+        <v>87.10499004626391</v>
       </c>
       <c r="M44" t="n">
-        <v>96.92108476125047</v>
+        <v>96.92108476125048</v>
       </c>
       <c r="N44" t="n">
-        <v>98.48936924056196</v>
+        <v>98.48936924056197</v>
       </c>
       <c r="O44" t="n">
-        <v>93.00071854415945</v>
+        <v>93.00071854415948</v>
       </c>
       <c r="P44" t="n">
-        <v>79.37396162977238</v>
+        <v>79.3739616297724</v>
       </c>
       <c r="Q44" t="n">
-        <v>59.60653957421845</v>
+        <v>59.60653957421847</v>
       </c>
       <c r="R44" t="n">
-        <v>34.67267925157945</v>
+        <v>34.67267925157946</v>
       </c>
       <c r="S44" t="n">
         <v>12.57801410376084</v>
       </c>
       <c r="T44" t="n">
-        <v>2.416248238692838</v>
+        <v>2.416248238692839</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04415759202636823</v>
+        <v>0.04415759202636824</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,7 +34439,7 @@
         <v>0.2953299329923911</v>
       </c>
       <c r="H45" t="n">
-        <v>2.852265405479146</v>
+        <v>2.852265405479147</v>
       </c>
       <c r="I45" t="n">
         <v>10.16815778065908</v>
@@ -34448,31 +34448,31 @@
         <v>27.90220213416271</v>
       </c>
       <c r="K45" t="n">
-        <v>47.68930764465291</v>
+        <v>47.68930764465292</v>
       </c>
       <c r="L45" t="n">
-        <v>64.12415935433475</v>
+        <v>64.12415935433476</v>
       </c>
       <c r="M45" t="n">
-        <v>74.8298694253089</v>
+        <v>74.82986942530893</v>
       </c>
       <c r="N45" t="n">
-        <v>76.81039340577105</v>
+        <v>76.81039340577107</v>
       </c>
       <c r="O45" t="n">
-        <v>70.26650383788702</v>
+        <v>70.26650383788703</v>
       </c>
       <c r="P45" t="n">
         <v>56.3950641343102</v>
       </c>
       <c r="Q45" t="n">
-        <v>37.698606885134</v>
+        <v>37.69860688513401</v>
       </c>
       <c r="R45" t="n">
         <v>18.33636198000127</v>
       </c>
       <c r="S45" t="n">
-        <v>5.485623974661296</v>
+        <v>5.485623974661297</v>
       </c>
       <c r="T45" t="n">
         <v>1.19038687903512</v>
@@ -34521,7 +34521,7 @@
         <v>2.201341925039921</v>
       </c>
       <c r="I46" t="n">
-        <v>7.445847738274084</v>
+        <v>7.445847738274086</v>
       </c>
       <c r="J46" t="n">
         <v>17.50494493970905</v>
@@ -34533,28 +34533,28 @@
         <v>36.81057857065731</v>
       </c>
       <c r="M46" t="n">
-        <v>38.81159387879685</v>
+        <v>38.81159387879686</v>
       </c>
       <c r="N46" t="n">
-        <v>37.88874092453679</v>
+        <v>37.8887409245368</v>
       </c>
       <c r="O46" t="n">
-        <v>34.99638471423382</v>
+        <v>34.99638471423383</v>
       </c>
       <c r="P46" t="n">
-        <v>29.94545293530784</v>
+        <v>29.94545293530785</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.73267941875531</v>
+        <v>20.73267941875532</v>
       </c>
       <c r="R46" t="n">
         <v>11.13275783358634</v>
       </c>
       <c r="S46" t="n">
-        <v>4.314900276381926</v>
+        <v>4.314900276381927</v>
       </c>
       <c r="T46" t="n">
-        <v>1.057904606103028</v>
+        <v>1.057904606103029</v>
       </c>
       <c r="U46" t="n">
         <v>0.013505165184294</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>119.573557623863</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>312.7786735775193</v>
       </c>
       <c r="L11" t="n">
-        <v>313.3725924880289</v>
+        <v>438.5043567987349</v>
       </c>
       <c r="M11" t="n">
-        <v>494.1323638047737</v>
+        <v>91.49118708512617</v>
       </c>
       <c r="N11" t="n">
         <v>480.6422568039112</v>
@@ -35425,10 +35425,10 @@
         <v>401.0861574056079</v>
       </c>
       <c r="P11" t="n">
-        <v>309.8354732015433</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>154.9926544091043</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>88.76497641002751</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>279.4979465943385</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>100.904627230466</v>
+        <v>433.6411746776839</v>
       </c>
       <c r="M12" t="n">
-        <v>504.8668763435781</v>
+        <v>504.8668763435786</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>232.5902650539948</v>
       </c>
       <c r="O12" t="n">
         <v>466.4280702865243</v>
@@ -35507,7 +35507,7 @@
         <v>361.5424573420852</v>
       </c>
       <c r="Q12" t="n">
-        <v>197.0638894968453</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.27975764525975</v>
+        <v>60.27975764525974</v>
       </c>
       <c r="K13" t="n">
         <v>164.9411047325542</v>
@@ -35586,7 +35586,7 @@
         <v>195.7814608591486</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.81219039142717</v>
+        <v>84.81219039142715</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>119.5735576238631</v>
       </c>
       <c r="K14" t="n">
-        <v>312.7786735775193</v>
+        <v>8.738547660998897</v>
       </c>
       <c r="L14" t="n">
-        <v>438.5043567987349</v>
+        <v>438.504356798735</v>
       </c>
       <c r="M14" t="n">
-        <v>494.1323638047737</v>
+        <v>494.1323638047738</v>
       </c>
       <c r="N14" t="n">
-        <v>480.6422568039112</v>
+        <v>480.6422568039113</v>
       </c>
       <c r="O14" t="n">
-        <v>401.0861574056079</v>
+        <v>401.086157405608</v>
       </c>
       <c r="P14" t="n">
-        <v>280.3615593179924</v>
+        <v>309.8354732015434</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>154.9926544091044</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>88.76497641002751</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>279.4979465943385</v>
       </c>
       <c r="L15" t="n">
-        <v>433.6411746776839</v>
+        <v>433.641174677684</v>
       </c>
       <c r="M15" t="n">
-        <v>564.762549738669</v>
+        <v>564.7625497386691</v>
       </c>
       <c r="N15" t="n">
-        <v>15.80430316236624</v>
+        <v>593.2403389846824</v>
       </c>
       <c r="O15" t="n">
-        <v>466.4280702865243</v>
+        <v>466.4280702865244</v>
       </c>
       <c r="P15" t="n">
-        <v>361.5424573420852</v>
+        <v>69.93528742663963</v>
       </c>
       <c r="Q15" t="n">
-        <v>197.0638894968453</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.27975764525975</v>
+        <v>60.27975764525976</v>
       </c>
       <c r="K16" t="n">
         <v>164.9411047325542</v>
@@ -35811,7 +35811,7 @@
         <v>240.6653700016917</v>
       </c>
       <c r="M16" t="n">
-        <v>260.2284325091668</v>
+        <v>260.2284325091669</v>
       </c>
       <c r="N16" t="n">
         <v>259.7387468498549</v>
@@ -35823,7 +35823,7 @@
         <v>195.7814608591486</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.81219039142717</v>
+        <v>84.81219039142718</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>312.7786735775193</v>
+        <v>128.3121052848624</v>
       </c>
       <c r="L17" t="n">
         <v>438.5043567987349</v>
@@ -35899,10 +35899,10 @@
         <v>401.0861574056079</v>
       </c>
       <c r="P17" t="n">
-        <v>280.3615593179924</v>
+        <v>309.8354732015433</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>154.9926544091043</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>88.76497641002751</v>
       </c>
       <c r="K18" t="n">
-        <v>279.4979465943385</v>
+        <v>260.6682576109509</v>
       </c>
       <c r="L18" t="n">
         <v>433.6411746776839</v>
@@ -35972,16 +35972,16 @@
         <v>564.762549738669</v>
       </c>
       <c r="N18" t="n">
-        <v>15.80430316236624</v>
+        <v>593.2403389846822</v>
       </c>
       <c r="O18" t="n">
         <v>466.4280702865243</v>
       </c>
       <c r="P18" t="n">
-        <v>361.5424573420852</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>197.0638894968453</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>62.70962582703449</v>
+        <v>62.70962582703448</v>
       </c>
       <c r="L19" t="n">
         <v>138.433891096172</v>
@@ -36121,13 +36121,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>312.7786735775193</v>
+        <v>312.7786735775192</v>
       </c>
       <c r="L20" t="n">
         <v>438.5043567987349</v>
       </c>
       <c r="M20" t="n">
-        <v>494.1323638047737</v>
+        <v>309.6657955121169</v>
       </c>
       <c r="N20" t="n">
         <v>480.6422568039112</v>
@@ -36136,10 +36136,10 @@
         <v>401.0861574056079</v>
       </c>
       <c r="P20" t="n">
-        <v>280.3615593179924</v>
+        <v>309.8354732015433</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>154.9926544091043</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>88.76497641002751</v>
       </c>
       <c r="K21" t="n">
-        <v>279.4979465943385</v>
+        <v>279.4979465943384</v>
       </c>
       <c r="L21" t="n">
         <v>433.6411746776839</v>
       </c>
       <c r="M21" t="n">
-        <v>564.762549738669</v>
+        <v>453.7545842028755</v>
       </c>
       <c r="N21" t="n">
-        <v>15.80430316236624</v>
+        <v>593.2403389846822</v>
       </c>
       <c r="O21" t="n">
-        <v>466.4280702865243</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>361.5424573420852</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>62.70962582703449</v>
+        <v>62.70962582703448</v>
       </c>
       <c r="L22" t="n">
         <v>138.433891096172</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>119.573557623863</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>312.7786735775193</v>
+        <v>128.3121052848633</v>
       </c>
       <c r="L23" t="n">
         <v>438.5043567987349</v>
@@ -36373,7 +36373,7 @@
         <v>401.0861574056079</v>
       </c>
       <c r="P23" t="n">
-        <v>5.795347285025267</v>
+        <v>309.8354732015433</v>
       </c>
       <c r="Q23" t="n">
         <v>154.9926544091043</v>
@@ -36382,7 +36382,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-1.332267629550188e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>279.4979465943385</v>
+        <v>279.4979465943384</v>
       </c>
       <c r="L24" t="n">
         <v>433.6411746776839</v>
       </c>
       <c r="M24" t="n">
-        <v>564.762549738669</v>
+        <v>76.0914903263799</v>
       </c>
       <c r="N24" t="n">
-        <v>570.997349858918</v>
+        <v>593.2403389846822</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>466.4280702865243</v>
       </c>
       <c r="P24" t="n">
         <v>361.5424573420852</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>62.70962582703449</v>
+        <v>62.70962582703448</v>
       </c>
       <c r="L25" t="n">
         <v>138.433891096172</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>119.573557623863</v>
+        <v>221.8050365293826</v>
       </c>
       <c r="K26" t="n">
-        <v>415.0101524830389</v>
+        <v>415.010152483039</v>
       </c>
       <c r="L26" t="n">
         <v>540.7358357042546</v>
       </c>
       <c r="M26" t="n">
-        <v>596.3638427102934</v>
+        <v>494.1323638047737</v>
       </c>
       <c r="N26" t="n">
-        <v>572.2989611126733</v>
+        <v>572.2989611126719</v>
       </c>
       <c r="O26" t="n">
         <v>503.3176363111276</v>
@@ -36616,7 +36616,7 @@
         <v>257.224133314624</v>
       </c>
       <c r="R26" t="n">
-        <v>47.17225451799396</v>
+        <v>47.17225451799397</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>88.76497641002751</v>
       </c>
       <c r="K27" t="n">
-        <v>279.4979465943385</v>
+        <v>279.4979465943384</v>
       </c>
       <c r="L27" t="n">
         <v>433.6411746776839</v>
@@ -36683,7 +36683,7 @@
         <v>564.762549738669</v>
       </c>
       <c r="N27" t="n">
-        <v>202.0242720685272</v>
+        <v>310.3231851553445</v>
       </c>
       <c r="O27" t="n">
         <v>466.4280702865243</v>
@@ -36692,7 +36692,7 @@
         <v>361.5424573420852</v>
       </c>
       <c r="Q27" t="n">
-        <v>197.0638894968453</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.27975764525974</v>
+        <v>60.27975764525975</v>
       </c>
       <c r="K28" t="n">
         <v>164.9411047325542</v>
@@ -36768,7 +36768,7 @@
         <v>236.6860924032785</v>
       </c>
       <c r="P28" t="n">
-        <v>195.7814608591485</v>
+        <v>195.7814608591486</v>
       </c>
       <c r="Q28" t="n">
         <v>84.81219039142715</v>
@@ -36832,10 +36832,10 @@
         <v>221.8050365293826</v>
       </c>
       <c r="K29" t="n">
-        <v>404.4353778862811</v>
+        <v>415.0101524830389</v>
       </c>
       <c r="L29" t="n">
-        <v>438.5043567987348</v>
+        <v>540.7358357042546</v>
       </c>
       <c r="M29" t="n">
         <v>596.3638427102933</v>
@@ -36850,10 +36850,10 @@
         <v>412.066952107063</v>
       </c>
       <c r="Q29" t="n">
-        <v>257.224133314624</v>
+        <v>154.9926544091043</v>
       </c>
       <c r="R29" t="n">
-        <v>47.17225451799393</v>
+        <v>36.59747992123628</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>88.7649764100275</v>
+        <v>88.76497641002751</v>
       </c>
       <c r="K30" t="n">
         <v>279.4979465943384</v>
@@ -36917,13 +36917,13 @@
         <v>433.6411746776839</v>
       </c>
       <c r="M30" t="n">
-        <v>564.7625497386689</v>
+        <v>564.762549738669</v>
       </c>
       <c r="N30" t="n">
-        <v>113.2592956584998</v>
+        <v>113.2592956584996</v>
       </c>
       <c r="O30" t="n">
-        <v>466.4280702865242</v>
+        <v>466.4280702865243</v>
       </c>
       <c r="P30" t="n">
         <v>361.5424573420852</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.27975764525971</v>
+        <v>60.27975764525974</v>
       </c>
       <c r="K31" t="n">
         <v>164.9411047325542</v>
       </c>
       <c r="L31" t="n">
-        <v>240.6653700016916</v>
+        <v>240.6653700016913</v>
       </c>
       <c r="M31" t="n">
         <v>260.2284325091667</v>
       </c>
       <c r="N31" t="n">
-        <v>259.7387468498548</v>
+        <v>259.7387468498549</v>
       </c>
       <c r="O31" t="n">
-        <v>236.6860924032784</v>
+        <v>236.6860924032785</v>
       </c>
       <c r="P31" t="n">
         <v>195.7814608591485</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.81219039142712</v>
+        <v>84.81219039142715</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>221.8050365293827</v>
+        <v>221.8050365293826</v>
       </c>
       <c r="K32" t="n">
-        <v>415.010152483039</v>
+        <v>415.0101524830389</v>
       </c>
       <c r="L32" t="n">
-        <v>540.7358357042546</v>
+        <v>438.5043567987349</v>
       </c>
       <c r="M32" t="n">
-        <v>596.3638427102934</v>
+        <v>585.7890681135361</v>
       </c>
       <c r="N32" t="n">
-        <v>582.8737357094309</v>
+        <v>582.8737357094308</v>
       </c>
       <c r="O32" t="n">
         <v>503.3176363111276</v>
       </c>
       <c r="P32" t="n">
-        <v>309.8354732015433</v>
+        <v>412.0669521070629</v>
       </c>
       <c r="Q32" t="n">
-        <v>246.6493587178655</v>
+        <v>257.224133314624</v>
       </c>
       <c r="R32" t="n">
-        <v>47.17225451799401</v>
+        <v>47.17225451799393</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>88.7649764100275</v>
+        <v>88.76497641002751</v>
       </c>
       <c r="K33" t="n">
         <v>279.4979465943384</v>
@@ -37154,13 +37154,13 @@
         <v>433.6411746776839</v>
       </c>
       <c r="M33" t="n">
-        <v>564.7625497386689</v>
+        <v>84.78150641248641</v>
       </c>
       <c r="N33" t="n">
-        <v>113.2592956584998</v>
+        <v>593.2403389846822</v>
       </c>
       <c r="O33" t="n">
-        <v>466.4280702865242</v>
+        <v>466.4280702865243</v>
       </c>
       <c r="P33" t="n">
         <v>361.5424573420852</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.27975764525979</v>
+        <v>60.27975764525971</v>
       </c>
       <c r="K34" t="n">
-        <v>164.9411047325524</v>
+        <v>164.9411047325541</v>
       </c>
       <c r="L34" t="n">
-        <v>240.6653700016917</v>
+        <v>240.6653700016916</v>
       </c>
       <c r="M34" t="n">
-        <v>260.2284325091668</v>
+        <v>260.2284325091667</v>
       </c>
       <c r="N34" t="n">
-        <v>259.7387468498549</v>
+        <v>259.7387468498548</v>
       </c>
       <c r="O34" t="n">
-        <v>236.6860924032785</v>
+        <v>236.6860924032784</v>
       </c>
       <c r="P34" t="n">
-        <v>195.7814608591486</v>
+        <v>195.7814608591485</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.81219039142719</v>
+        <v>84.81219039142712</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>312.7786735775192</v>
       </c>
       <c r="L35" t="n">
-        <v>438.5043567987348</v>
+        <v>438.5043567987349</v>
       </c>
       <c r="M35" t="n">
         <v>494.1323638047737</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>88.7649764100275</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>279.4979465943384</v>
@@ -37391,13 +37391,13 @@
         <v>433.6411746776839</v>
       </c>
       <c r="M36" t="n">
-        <v>564.7625497386689</v>
+        <v>564.762549738669</v>
       </c>
       <c r="N36" t="n">
-        <v>113.2592956584994</v>
+        <v>593.2403389846822</v>
       </c>
       <c r="O36" t="n">
-        <v>466.4280702865242</v>
+        <v>75.21200337036883</v>
       </c>
       <c r="P36" t="n">
         <v>361.5424573420852</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>62.70962582703447</v>
+        <v>62.70962582703448</v>
       </c>
       <c r="L37" t="n">
-        <v>138.4338910961719</v>
+        <v>138.433891096172</v>
       </c>
       <c r="M37" t="n">
         <v>157.9969536036471</v>
       </c>
       <c r="N37" t="n">
-        <v>157.5072679443351</v>
+        <v>157.5072679443352</v>
       </c>
       <c r="O37" t="n">
-        <v>134.4546134977587</v>
+        <v>134.4546134977588</v>
       </c>
       <c r="P37" t="n">
-        <v>93.54998195362884</v>
+        <v>93.54998195362886</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37546,10 +37546,10 @@
         <v>312.7786735775192</v>
       </c>
       <c r="L38" t="n">
-        <v>438.5043567987348</v>
+        <v>438.5043567987349</v>
       </c>
       <c r="M38" t="n">
-        <v>494.1323638047735</v>
+        <v>494.1323638047737</v>
       </c>
       <c r="N38" t="n">
         <v>480.6422568039112</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>88.7649764100275</v>
+        <v>88.76497641002751</v>
       </c>
       <c r="K39" t="n">
-        <v>279.4979465943384</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>433.6411746776839</v>
       </c>
       <c r="M39" t="n">
-        <v>564.7625497386689</v>
+        <v>564.762549738669</v>
       </c>
       <c r="N39" t="n">
-        <v>113.2592956584994</v>
+        <v>593.2403389846822</v>
       </c>
       <c r="O39" t="n">
-        <v>466.4280702865242</v>
+        <v>466.4280702865243</v>
       </c>
       <c r="P39" t="n">
-        <v>361.5424573420852</v>
+        <v>161.0593606102405</v>
       </c>
       <c r="Q39" t="n">
         <v>197.0638894968453</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>62.70962582703447</v>
+        <v>62.70962582703448</v>
       </c>
       <c r="L40" t="n">
-        <v>138.4338910961719</v>
+        <v>138.433891096172</v>
       </c>
       <c r="M40" t="n">
         <v>157.9969536036471</v>
       </c>
       <c r="N40" t="n">
-        <v>157.5072679443351</v>
+        <v>157.5072679443352</v>
       </c>
       <c r="O40" t="n">
-        <v>134.4546134977587</v>
+        <v>134.4546134977588</v>
       </c>
       <c r="P40" t="n">
-        <v>93.54998195362884</v>
+        <v>93.54998195362886</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>312.7786735775192</v>
       </c>
       <c r="L41" t="n">
-        <v>438.5043567987348</v>
+        <v>438.5043567987349</v>
       </c>
       <c r="M41" t="n">
         <v>494.1323638047737</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>88.7649764100275</v>
+        <v>88.76497641002751</v>
       </c>
       <c r="K42" t="n">
         <v>279.4979465943384</v>
@@ -37865,13 +37865,13 @@
         <v>433.6411746776839</v>
       </c>
       <c r="M42" t="n">
-        <v>564.7625497386689</v>
+        <v>84.78150641248618</v>
       </c>
       <c r="N42" t="n">
-        <v>113.2592956584994</v>
+        <v>593.2403389846822</v>
       </c>
       <c r="O42" t="n">
-        <v>466.4280702865242</v>
+        <v>466.4280702865243</v>
       </c>
       <c r="P42" t="n">
         <v>361.5424573420852</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>62.70962582703447</v>
+        <v>62.70962582703448</v>
       </c>
       <c r="L43" t="n">
-        <v>138.4338910961719</v>
+        <v>138.433891096172</v>
       </c>
       <c r="M43" t="n">
         <v>157.9969536036471</v>
       </c>
       <c r="N43" t="n">
-        <v>157.5072679443351</v>
+        <v>157.5072679443352</v>
       </c>
       <c r="O43" t="n">
-        <v>134.4546134977587</v>
+        <v>134.4546134977588</v>
       </c>
       <c r="P43" t="n">
-        <v>93.54998195362884</v>
+        <v>93.54998195362886</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>119.573557623863</v>
       </c>
       <c r="K44" t="n">
-        <v>312.7786735775192</v>
+        <v>312.7786735775193</v>
       </c>
       <c r="L44" t="n">
-        <v>438.5043567987348</v>
+        <v>438.5043567987349</v>
       </c>
       <c r="M44" t="n">
-        <v>494.1323638047726</v>
+        <v>494.1323638047737</v>
       </c>
       <c r="N44" t="n">
         <v>480.6422568039112</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>88.76497641002751</v>
       </c>
       <c r="K45" t="n">
         <v>279.4979465943384</v>
@@ -38102,13 +38102,13 @@
         <v>433.6411746776839</v>
       </c>
       <c r="M45" t="n">
-        <v>564.7625497386689</v>
+        <v>84.78150641248618</v>
       </c>
       <c r="N45" t="n">
-        <v>202.0242720685272</v>
+        <v>593.2403389846822</v>
       </c>
       <c r="O45" t="n">
-        <v>466.4280702865242</v>
+        <v>466.4280702865243</v>
       </c>
       <c r="P45" t="n">
         <v>361.5424573420852</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>62.70962582703447</v>
+        <v>62.70962582703448</v>
       </c>
       <c r="L46" t="n">
-        <v>138.4338910961719</v>
+        <v>138.433891096172</v>
       </c>
       <c r="M46" t="n">
         <v>157.9969536036471</v>
       </c>
       <c r="N46" t="n">
-        <v>157.5072679443351</v>
+        <v>157.5072679443352</v>
       </c>
       <c r="O46" t="n">
-        <v>134.4546134977587</v>
+        <v>134.4546134977588</v>
       </c>
       <c r="P46" t="n">
-        <v>93.54998195362884</v>
+        <v>93.54998195362886</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
